--- a/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.2.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="9315" windowHeight="6720"/>
+    <workbookView xWindow="255" yWindow="0" windowWidth="6090" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -1497,6 +1497,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,24 +1653,17 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -1663,19 +1671,11 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,8 +1984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1997,88 +1998,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="75" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="89" t="s">
+      <c r="A3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="81"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="66" t="s">
         <v>213</v>
       </c>
@@ -2268,11 +2269,11 @@
         <v>40261</v>
       </c>
       <c r="F7" s="49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" s="49">
         <f t="shared" ref="G7:G70" si="1">F7*B7</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7" s="56">
         <v>40303</v>
@@ -2574,11 +2575,11 @@
         <v>40261</v>
       </c>
       <c r="F13" s="49">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G13" s="49">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="H13" s="56">
         <v>40303</v>
@@ -2690,11 +2691,11 @@
         <v>40261</v>
       </c>
       <c r="F15" s="49">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G15" s="49">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H15" s="56">
         <v>40303</v>
@@ -6968,11 +6969,11 @@
         <v>40257</v>
       </c>
       <c r="F96" s="49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G96" s="49">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H96" s="56">
         <v>40263</v>
@@ -7020,11 +7021,11 @@
         <v>40257</v>
       </c>
       <c r="F97" s="49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G97" s="49">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H97" s="56">
         <v>40263</v>
@@ -7072,11 +7073,11 @@
         <v>40257</v>
       </c>
       <c r="F98" s="49">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G98" s="49">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H98" s="56">
         <v>40263</v>
@@ -7176,11 +7177,11 @@
         <v>40258</v>
       </c>
       <c r="F100" s="49">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G100" s="49">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H100" s="56">
         <v>40263</v>
@@ -8657,30 +8658,30 @@
       <c r="T125" s="53"/>
     </row>
     <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="87" t="s">
+      <c r="A126" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="88"/>
+      <c r="B126" s="95"/>
       <c r="C126" s="65">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="67" t="s">
+      <c r="D126" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="68"/>
-      <c r="F126" s="69"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="76"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
-        <v>3025</v>
-      </c>
-      <c r="H126" s="91" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H126" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="92"/>
+      <c r="I126" s="99"/>
       <c r="J126" s="64">
         <f>(G126*100)/C126</f>
-        <v>23.818897637795274</v>
+        <v>26.377952755905511</v>
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="53"/>
@@ -8694,33 +8695,33 @@
       <c r="T126" s="53"/>
     </row>
     <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A127" s="70" t="s">
+      <c r="A127" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
-      <c r="D127" s="72" t="s">
+      <c r="D127" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="73"/>
-      <c r="R127" s="73"/>
-      <c r="S127" s="73"/>
-      <c r="T127" s="74"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="80"/>
+      <c r="I127" s="80"/>
+      <c r="J127" s="80"/>
+      <c r="K127" s="80"/>
+      <c r="L127" s="80"/>
+      <c r="M127" s="80"/>
+      <c r="N127" s="80"/>
+      <c r="O127" s="80"/>
+      <c r="P127" s="80"/>
+      <c r="Q127" s="80"/>
+      <c r="R127" s="80"/>
+      <c r="S127" s="80"/>
+      <c r="T127" s="81"/>
     </row>
     <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="71"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="60" t="s">
         <v>214</v>
       </c>
@@ -10941,33 +10942,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="102"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -10979,7 +10980,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.25" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="98"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -10999,15 +11000,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -11019,7 +11020,7 @@
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="98"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -11088,7 +11089,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="106" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -11118,7 +11119,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="100"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -11190,7 +11191,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11262,7 +11263,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11334,7 +11335,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11406,7 +11407,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="100"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11478,7 +11479,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="100"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11550,7 +11551,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="100"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -11622,7 +11623,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -11694,7 +11695,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -11722,7 +11723,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="100"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -11794,7 +11795,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -11866,7 +11867,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -11938,7 +11939,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -12010,7 +12011,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12082,7 +12083,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12154,7 +12155,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -12226,7 +12227,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="100"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -12298,7 +12299,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="100"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -12370,7 +12371,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -12398,7 +12399,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="100"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12470,7 +12471,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="100"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12542,7 +12543,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -12570,7 +12571,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12642,7 +12643,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -12714,7 +12715,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -12786,7 +12787,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -12858,7 +12859,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="100"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -12930,7 +12931,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="100"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -13002,7 +13003,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="100"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -13074,7 +13075,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="100"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -13146,7 +13147,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="100"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -13218,7 +13219,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="100"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -13290,7 +13291,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="100"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -13362,7 +13363,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="100"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13434,7 +13435,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="100"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13506,7 +13507,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="100"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -13578,7 +13579,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="100"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -13650,7 +13651,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="100"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -13722,7 +13723,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="100"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -13750,7 +13751,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="100"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -13822,7 +13823,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="100"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -13894,7 +13895,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="100"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -13966,7 +13967,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="100"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -14038,7 +14039,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="100"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -14066,7 +14067,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="100"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -14138,7 +14139,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="100"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -14210,7 +14211,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="100"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -14282,7 +14283,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="100"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -14354,7 +14355,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="100"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14426,7 +14427,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="100"/>
+      <c r="A54" s="107"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14498,7 +14499,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="100"/>
+      <c r="A55" s="107"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14526,7 +14527,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="100"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -14598,7 +14599,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="100"/>
+      <c r="A57" s="107"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -14670,7 +14671,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="100"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -14742,7 +14743,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="100"/>
+      <c r="A59" s="107"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -14814,7 +14815,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="100"/>
+      <c r="A60" s="107"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -14886,7 +14887,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="100"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -14958,7 +14959,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="100"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -14986,7 +14987,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="100"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -15014,7 +15015,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="100"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
@@ -15086,7 +15087,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="100"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -15158,7 +15159,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="100"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -15230,7 +15231,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="100"/>
+      <c r="A67" s="107"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -15302,7 +15303,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="100"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -15374,7 +15375,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="100"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15446,7 +15447,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="100"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15518,7 +15519,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="100"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -15550,7 +15551,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="100"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -15582,7 +15583,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="100"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -15614,7 +15615,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="100"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -15646,7 +15647,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="100"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -15674,7 +15675,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="100"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -15702,7 +15703,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="100"/>
+      <c r="A77" s="107"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -15730,7 +15731,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="100"/>
+      <c r="A78" s="107"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -15758,7 +15759,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="100"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -15786,7 +15787,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="100"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -15816,7 +15817,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="100"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -15846,7 +15847,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="100"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -15878,7 +15879,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="100"/>
+      <c r="A83" s="107"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -15908,7 +15909,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="100"/>
+      <c r="A84" s="107"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -15938,7 +15939,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="100"/>
+      <c r="A85" s="107"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -15970,7 +15971,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="100"/>
+      <c r="A86" s="107"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -15998,7 +15999,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="100"/>
+      <c r="A87" s="107"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -16030,7 +16031,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="100"/>
+      <c r="A88" s="107"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -16062,7 +16063,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="100"/>
+      <c r="A89" s="107"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -16098,7 +16099,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="100"/>
+      <c r="A90" s="107"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -16126,7 +16127,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="100"/>
+      <c r="A91" s="107"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -16198,7 +16199,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="100"/>
+      <c r="A92" s="107"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -16270,7 +16271,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="100"/>
+      <c r="A93" s="107"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -16342,7 +16343,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="100"/>
+      <c r="A94" s="107"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -16414,7 +16415,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="100"/>
+      <c r="A95" s="107"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16486,7 +16487,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="100"/>
+      <c r="A96" s="107"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -16558,7 +16559,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="100"/>
+      <c r="A97" s="107"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -16630,7 +16631,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="100"/>
+      <c r="A98" s="107"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -16702,7 +16703,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="100"/>
+      <c r="A99" s="107"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -16774,7 +16775,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="100"/>
+      <c r="A100" s="107"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -16846,7 +16847,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="100"/>
+      <c r="A101" s="107"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -16918,7 +16919,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="100"/>
+      <c r="A102" s="107"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -16990,7 +16991,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="100"/>
+      <c r="A103" s="107"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -17062,7 +17063,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="100"/>
+      <c r="A104" s="107"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17134,7 +17135,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="100"/>
+      <c r="A105" s="107"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17162,7 +17163,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="100"/>
+      <c r="A106" s="107"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17234,7 +17235,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="100"/>
+      <c r="A107" s="107"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -17262,7 +17263,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="100"/>
+      <c r="A108" s="107"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -17290,7 +17291,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="100"/>
+      <c r="A109" s="107"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17318,7 +17319,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="100"/>
+      <c r="A110" s="107"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -17346,7 +17347,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="100"/>
+      <c r="A111" s="107"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -17374,7 +17375,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="100"/>
+      <c r="A112" s="107"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -17402,7 +17403,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="100"/>
+      <c r="A113" s="107"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17430,7 +17431,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="100"/>
+      <c r="A114" s="107"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17458,7 +17459,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="100"/>
+      <c r="A115" s="107"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17486,7 +17487,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="100"/>
+      <c r="A116" s="107"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17514,7 +17515,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="100"/>
+      <c r="A117" s="107"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17542,7 +17543,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="100"/>
+      <c r="A118" s="107"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -17614,7 +17615,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="100"/>
+      <c r="A119" s="107"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -17642,7 +17643,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="100"/>
+      <c r="A120" s="107"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -17714,7 +17715,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="100"/>
+      <c r="A121" s="107"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -17786,7 +17787,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="100"/>
+      <c r="A122" s="107"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -17814,7 +17815,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="100"/>
+      <c r="A123" s="107"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -17842,7 +17843,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="101"/>
+      <c r="A124" s="108"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -17944,42 +17945,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="106" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109" t="s">
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="120"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18440,7 +18441,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="111" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -18779,7 +18780,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -19116,7 +19117,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19453,7 +19454,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="105"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -19790,7 +19791,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -20127,7 +20128,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="105"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20466,7 +20467,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="105"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -20805,7 +20806,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="105"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -21144,7 +21145,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="105"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21483,7 +21484,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="105"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -21610,7 +21611,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="105"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -21737,7 +21738,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="105"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -21864,7 +21865,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="105"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -21991,7 +21992,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="105"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -22118,7 +22119,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="105"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -22245,7 +22246,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="105"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -22584,7 +22585,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="105"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -22711,7 +22712,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="105"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -23050,7 +23051,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="105"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -23389,7 +23390,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="105"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -23728,7 +23729,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="105"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -24067,7 +24068,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="105"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -24398,7 +24399,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="105"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24525,7 +24526,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="105"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -24652,7 +24653,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="105"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -24779,7 +24780,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="105"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -24958,7 +24959,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="105"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -25137,7 +25138,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="105"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -25316,7 +25317,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="105"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25495,7 +25496,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="105"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -25674,7 +25675,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="105"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -26009,7 +26010,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="105"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -26346,7 +26347,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="105"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -26685,7 +26686,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="105"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -27024,7 +27025,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="105"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
@@ -27714,72 +27715,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
     </row>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="123" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
       <c r="AY2" s="13"/>
@@ -27789,1576 +27790,1576 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="117"/>
-      <c r="B4" s="119" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="119" t="s">
+      <c r="A6" s="121"/>
+      <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="119" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="119" t="s">
+      <c r="A8" s="121"/>
+      <c r="B8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="119" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="121"/>
+      <c r="B10" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="119" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="119" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="117"/>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="119" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="119" t="s">
+      <c r="A16" s="121"/>
+      <c r="B16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="119" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="117"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="119" t="s">
+      <c r="A21" s="121"/>
+      <c r="B21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="119" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="119" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="119" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="119" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="119" t="s">
+      <c r="A27" s="121"/>
+      <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="119" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="121"/>
+      <c r="B29" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="119" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="119" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="117"/>
-      <c r="B32" s="119" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="117"/>
-      <c r="B33" s="119" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="119" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="119" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="117"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="117"/>
-      <c r="B37" s="119" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="117"/>
-      <c r="B38" s="119" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="119" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="117"/>
-      <c r="B40" s="119" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="119" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="119" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="119" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="117"/>
-      <c r="B44" s="119" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="119" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="117"/>
-      <c r="B46" s="119" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="117"/>
-      <c r="B47" s="119" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="117"/>
-      <c r="B48" s="119" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="117"/>
-      <c r="B49" s="119" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="117"/>
-      <c r="B50" s="119" t="s">
+      <c r="A50" s="121"/>
+      <c r="B50" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="117"/>
-      <c r="B51" s="119" t="s">
+      <c r="A51" s="121"/>
+      <c r="B51" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="117"/>
-      <c r="B52" s="119" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="117"/>
-      <c r="B53" s="119" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="117"/>
-      <c r="B54" s="119" t="s">
+      <c r="A54" s="121"/>
+      <c r="B54" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="117"/>
-      <c r="B55" s="119" t="s">
+      <c r="A55" s="121"/>
+      <c r="B55" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="117"/>
-      <c r="B56" s="119" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="117"/>
-      <c r="B57" s="119" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="119" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="117"/>
-      <c r="B59" s="119" t="s">
+      <c r="A59" s="121"/>
+      <c r="B59" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="117"/>
-      <c r="B60" s="119" t="s">
+      <c r="A60" s="121"/>
+      <c r="B60" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="117"/>
-      <c r="B61" s="119" t="s">
+      <c r="A61" s="121"/>
+      <c r="B61" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="119" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="117"/>
-      <c r="B63" s="119" t="s">
+      <c r="A63" s="121"/>
+      <c r="B63" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="119" t="s">
+      <c r="A64" s="121"/>
+      <c r="B64" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="117"/>
-      <c r="B65" s="119" t="s">
+      <c r="A65" s="121"/>
+      <c r="B65" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="117"/>
-      <c r="B66" s="119" t="s">
+      <c r="A66" s="121"/>
+      <c r="B66" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="117"/>
-      <c r="B67" s="119" t="s">
+      <c r="A67" s="121"/>
+      <c r="B67" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="117"/>
-      <c r="B68" s="120" t="s">
+      <c r="A68" s="121"/>
+      <c r="B68" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="117"/>
-      <c r="B69" s="120" t="s">
+      <c r="A69" s="121"/>
+      <c r="B69" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="117"/>
-      <c r="B70" s="120" t="s">
+      <c r="A70" s="121"/>
+      <c r="B70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="117"/>
-      <c r="B71" s="120" t="s">
+      <c r="A71" s="121"/>
+      <c r="B71" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="117"/>
-      <c r="B72" s="120" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="117"/>
-      <c r="B73" s="120" t="s">
+      <c r="A73" s="121"/>
+      <c r="B73" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="117"/>
-      <c r="B74" s="120" t="s">
+      <c r="A74" s="121"/>
+      <c r="B74" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="117"/>
-      <c r="B75" s="120" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="117"/>
-      <c r="B76" s="120" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="117"/>
-      <c r="B77" s="120" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="117"/>
-      <c r="B78" s="120" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="117"/>
-      <c r="B79" s="120" t="s">
+      <c r="A79" s="121"/>
+      <c r="B79" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="117"/>
-      <c r="B80" s="120" t="s">
+      <c r="A80" s="121"/>
+      <c r="B80" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="117"/>
-      <c r="B81" s="120" t="s">
+      <c r="A81" s="121"/>
+      <c r="B81" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="117"/>
-      <c r="B82" s="120" t="s">
+      <c r="A82" s="121"/>
+      <c r="B82" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="117"/>
-      <c r="B83" s="120" t="s">
+      <c r="A83" s="121"/>
+      <c r="B83" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="117"/>
-      <c r="B84" s="120" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="117"/>
-      <c r="B85" s="120" t="s">
+      <c r="A85" s="121"/>
+      <c r="B85" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="117"/>
-      <c r="B86" s="120" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="117"/>
-      <c r="B87" s="120" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="117"/>
-      <c r="B88" s="120" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="117"/>
-      <c r="B89" s="120" t="s">
+      <c r="A89" s="121"/>
+      <c r="B89" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="117"/>
-      <c r="B90" s="120" t="s">
+      <c r="A90" s="121"/>
+      <c r="B90" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="117"/>
-      <c r="B91" s="120" t="s">
+      <c r="A91" s="121"/>
+      <c r="B91" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="117"/>
-      <c r="B92" s="120" t="s">
+      <c r="A92" s="121"/>
+      <c r="B92" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="117"/>
-      <c r="B93" s="120" t="s">
+      <c r="A93" s="121"/>
+      <c r="B93" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="114"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="117"/>
-      <c r="B94" s="120" t="s">
+      <c r="A94" s="121"/>
+      <c r="B94" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="117"/>
-      <c r="B95" s="120" t="s">
+      <c r="A95" s="121"/>
+      <c r="B95" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="114"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="117"/>
-      <c r="B96" s="120" t="s">
+      <c r="A96" s="121"/>
+      <c r="B96" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="114"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="117"/>
-      <c r="B97" s="120" t="s">
+      <c r="A97" s="121"/>
+      <c r="B97" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="117"/>
-      <c r="B98" s="120" t="s">
+      <c r="A98" s="121"/>
+      <c r="B98" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="117"/>
-      <c r="B99" s="120" t="s">
+      <c r="A99" s="121"/>
+      <c r="B99" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="117"/>
-      <c r="B100" s="120" t="s">
+      <c r="A100" s="121"/>
+      <c r="B100" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="114"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="117"/>
-      <c r="B101" s="120" t="s">
+      <c r="A101" s="121"/>
+      <c r="B101" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="117"/>
-      <c r="B102" s="120" t="s">
+      <c r="A102" s="121"/>
+      <c r="B102" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="117"/>
-      <c r="B103" s="120" t="s">
+      <c r="A103" s="121"/>
+      <c r="B103" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="114"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="117"/>
-      <c r="B104" s="120" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="114"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="117"/>
-      <c r="B105" s="120" t="s">
+      <c r="A105" s="121"/>
+      <c r="B105" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="114"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="114"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="117"/>
-      <c r="B106" s="120" t="s">
+      <c r="A106" s="121"/>
+      <c r="B106" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="114"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="117"/>
-      <c r="B107" s="120" t="s">
+      <c r="A107" s="121"/>
+      <c r="B107" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="114"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="117"/>
-      <c r="B108" s="120" t="s">
+      <c r="A108" s="121"/>
+      <c r="B108" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="114"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="117"/>
-      <c r="B109" s="120" t="s">
+      <c r="A109" s="121"/>
+      <c r="B109" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="114"/>
-      <c r="D109" s="114"/>
-      <c r="E109" s="114"/>
-      <c r="F109" s="114"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="117"/>
-      <c r="B110" s="120" t="s">
+      <c r="A110" s="121"/>
+      <c r="B110" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="114"/>
-      <c r="D110" s="114"/>
-      <c r="E110" s="114"/>
-      <c r="F110" s="114"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="117"/>
-      <c r="B111" s="120" t="s">
+      <c r="A111" s="121"/>
+      <c r="B111" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="117"/>
-      <c r="B112" s="120" t="s">
+      <c r="A112" s="121"/>
+      <c r="B112" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="117"/>
-      <c r="B113" s="120" t="s">
+      <c r="A113" s="121"/>
+      <c r="B113" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="114"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="114"/>
-      <c r="F113" s="114"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="117"/>
-      <c r="B114" s="120" t="s">
+      <c r="A114" s="121"/>
+      <c r="B114" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="114"/>
-      <c r="D114" s="114"/>
-      <c r="E114" s="114"/>
-      <c r="F114" s="114"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="117"/>
-      <c r="B115" s="120" t="s">
+      <c r="A115" s="121"/>
+      <c r="B115" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="114"/>
-      <c r="D115" s="114"/>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="117"/>
-      <c r="B116" s="120" t="s">
+      <c r="A116" s="121"/>
+      <c r="B116" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="114"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="114"/>
-      <c r="F116" s="114"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="117"/>
-      <c r="B117" s="120" t="s">
+      <c r="A117" s="121"/>
+      <c r="B117" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="114"/>
-      <c r="F117" s="114"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="117"/>
-      <c r="B118" s="120" t="s">
+      <c r="A118" s="121"/>
+      <c r="B118" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="114"/>
-      <c r="D118" s="114"/>
-      <c r="E118" s="114"/>
-      <c r="F118" s="114"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="117"/>
-      <c r="B119" s="120" t="s">
+      <c r="A119" s="121"/>
+      <c r="B119" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="114"/>
-      <c r="D119" s="114"/>
-      <c r="E119" s="114"/>
-      <c r="F119" s="114"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="117"/>
-      <c r="B120" s="120" t="s">
+      <c r="A120" s="121"/>
+      <c r="B120" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="114"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="117"/>
-      <c r="B121" s="120" t="s">
+      <c r="A121" s="121"/>
+      <c r="B121" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="114"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="114"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="117"/>
-      <c r="B122" s="120" t="s">
+      <c r="A122" s="121"/>
+      <c r="B122" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="114"/>
-      <c r="D122" s="114"/>
-      <c r="E122" s="114"/>
-      <c r="F122" s="114"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="117"/>
-      <c r="B123" s="120" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="114"/>
-      <c r="D123" s="114"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="114"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A124" s="114"/>
-      <c r="B124" s="127"/>
-      <c r="C124" s="114"/>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="114"/>
+      <c r="A124" s="67"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="128" t="s">
+      <c r="A125" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="B125" s="119" t="s">
+      <c r="B125" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="114"/>
-      <c r="D125" s="114"/>
-      <c r="E125" s="114"/>
-      <c r="F125" s="114"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="128"/>
-      <c r="B126" s="119" t="s">
+      <c r="A126" s="122"/>
+      <c r="B126" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="114"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="128"/>
-      <c r="B127" s="119" t="s">
+      <c r="A127" s="122"/>
+      <c r="B127" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="114"/>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="128"/>
-      <c r="B128" s="119" t="s">
+      <c r="A128" s="122"/>
+      <c r="B128" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="128"/>
-      <c r="B129" s="119" t="s">
+      <c r="A129" s="122"/>
+      <c r="B129" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="114"/>
-      <c r="D129" s="114"/>
-      <c r="E129" s="114"/>
-      <c r="F129" s="114"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="128"/>
-      <c r="B130" s="119" t="s">
+      <c r="A130" s="122"/>
+      <c r="B130" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="114"/>
-      <c r="D130" s="114"/>
-      <c r="E130" s="114"/>
-      <c r="F130" s="114"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="128"/>
-      <c r="B131" s="119" t="s">
+      <c r="A131" s="122"/>
+      <c r="B131" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C131" s="114"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="114"/>
-      <c r="F131" s="114"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="128"/>
-      <c r="B132" s="119" t="s">
+      <c r="A132" s="122"/>
+      <c r="B132" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="114"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="114"/>
-      <c r="F132" s="114"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="128"/>
-      <c r="B133" s="119" t="s">
+      <c r="A133" s="122"/>
+      <c r="B133" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="114"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="128"/>
-      <c r="B134" s="119" t="s">
+      <c r="A134" s="122"/>
+      <c r="B134" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="114"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="114"/>
-      <c r="F134" s="114"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="128"/>
-      <c r="B135" s="119" t="s">
+      <c r="A135" s="122"/>
+      <c r="B135" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="114"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="114"/>
-      <c r="F135" s="114"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="128"/>
-      <c r="B136" s="119" t="s">
+      <c r="A136" s="122"/>
+      <c r="B136" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C136" s="114"/>
-      <c r="D136" s="114"/>
-      <c r="E136" s="114"/>
-      <c r="F136" s="114"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="128"/>
-      <c r="B137" s="119" t="s">
+      <c r="A137" s="122"/>
+      <c r="B137" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C137" s="114"/>
-      <c r="D137" s="114"/>
-      <c r="E137" s="114"/>
-      <c r="F137" s="114"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="128"/>
-      <c r="B138" s="119" t="s">
+      <c r="A138" s="122"/>
+      <c r="B138" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="114"/>
-      <c r="D138" s="114"/>
-      <c r="E138" s="114"/>
-      <c r="F138" s="114"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="128"/>
-      <c r="B139" s="119" t="s">
+      <c r="A139" s="122"/>
+      <c r="B139" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="114"/>
-      <c r="D139" s="114"/>
-      <c r="E139" s="114"/>
-      <c r="F139" s="114"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="128"/>
-      <c r="B140" s="119" t="s">
+      <c r="A140" s="122"/>
+      <c r="B140" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="114"/>
-      <c r="D140" s="114"/>
-      <c r="E140" s="114"/>
-      <c r="F140" s="114"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="128"/>
-      <c r="B141" s="119" t="s">
+      <c r="A141" s="122"/>
+      <c r="B141" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C141" s="114"/>
-      <c r="D141" s="114"/>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="128"/>
-      <c r="B142" s="119" t="s">
+      <c r="A142" s="122"/>
+      <c r="B142" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C142" s="114"/>
-      <c r="D142" s="114"/>
-      <c r="E142" s="114"/>
-      <c r="F142" s="114"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="128"/>
-      <c r="B143" s="119" t="s">
+      <c r="A143" s="122"/>
+      <c r="B143" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="114"/>
-      <c r="D143" s="114"/>
-      <c r="E143" s="114"/>
-      <c r="F143" s="114"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="128"/>
-      <c r="B144" s="119" t="s">
+      <c r="A144" s="122"/>
+      <c r="B144" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="114"/>
-      <c r="D144" s="114"/>
-      <c r="E144" s="114"/>
-      <c r="F144" s="114"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="67"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="128"/>
-      <c r="B145" s="119" t="s">
+      <c r="A145" s="122"/>
+      <c r="B145" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C145" s="114"/>
-      <c r="D145" s="114"/>
-      <c r="E145" s="114"/>
-      <c r="F145" s="114"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="128"/>
-      <c r="B146" s="119" t="s">
+      <c r="A146" s="122"/>
+      <c r="B146" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="114"/>
-      <c r="D146" s="114"/>
-      <c r="E146" s="114"/>
-      <c r="F146" s="114"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="128"/>
-      <c r="B147" s="119" t="s">
+      <c r="A147" s="122"/>
+      <c r="B147" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C147" s="114"/>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="128"/>
-      <c r="B148" s="119" t="s">
+      <c r="A148" s="122"/>
+      <c r="B148" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C148" s="114"/>
-      <c r="D148" s="114"/>
-      <c r="E148" s="114"/>
-      <c r="F148" s="114"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="128"/>
-      <c r="B149" s="119" t="s">
+      <c r="A149" s="122"/>
+      <c r="B149" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="114"/>
-      <c r="D149" s="114"/>
-      <c r="E149" s="114"/>
-      <c r="F149" s="114"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="128"/>
-      <c r="B150" s="119" t="s">
+      <c r="A150" s="122"/>
+      <c r="B150" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C150" s="114"/>
-      <c r="D150" s="114"/>
-      <c r="E150" s="114"/>
-      <c r="F150" s="114"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="128"/>
-      <c r="B151" s="119" t="s">
+      <c r="A151" s="122"/>
+      <c r="B151" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="114"/>
-      <c r="D151" s="114"/>
-      <c r="E151" s="114"/>
-      <c r="F151" s="114"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="67"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="128"/>
-      <c r="B152" s="119" t="s">
+      <c r="A152" s="122"/>
+      <c r="B152" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C152" s="114"/>
-      <c r="D152" s="114"/>
-      <c r="E152" s="114"/>
-      <c r="F152" s="114"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="128"/>
-      <c r="B153" s="119" t="s">
+      <c r="A153" s="122"/>
+      <c r="B153" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="114"/>
-      <c r="E153" s="114"/>
-      <c r="F153" s="114"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="128"/>
-      <c r="B154" s="119" t="s">
+      <c r="A154" s="122"/>
+      <c r="B154" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C154" s="114"/>
-      <c r="D154" s="114"/>
-      <c r="E154" s="114"/>
-      <c r="F154" s="114"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="128"/>
-      <c r="B155" s="119" t="s">
+      <c r="A155" s="122"/>
+      <c r="B155" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C155" s="114"/>
-      <c r="D155" s="114"/>
-      <c r="E155" s="114"/>
-      <c r="F155" s="114"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="128"/>
-      <c r="B156" s="120" t="s">
+      <c r="A156" s="122"/>
+      <c r="B156" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="114"/>
-      <c r="D156" s="114"/>
-      <c r="E156" s="114"/>
-      <c r="F156" s="114"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="128"/>
-      <c r="B157" s="120" t="s">
+      <c r="A157" s="122"/>
+      <c r="B157" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="114"/>
-      <c r="D157" s="114"/>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="128"/>
-      <c r="B158" s="120" t="s">
+      <c r="A158" s="122"/>
+      <c r="B158" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C158" s="114"/>
-      <c r="D158" s="114"/>
-      <c r="E158" s="114"/>
-      <c r="F158" s="114"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="128"/>
-      <c r="B159" s="120" t="s">
+      <c r="A159" s="122"/>
+      <c r="B159" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C159" s="114"/>
-      <c r="D159" s="114"/>
-      <c r="E159" s="114"/>
-      <c r="F159" s="114"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -29390,1605 +29391,1605 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="123" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="70" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="119" t="s">
+      <c r="A6" s="121"/>
+      <c r="B6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="119" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="119" t="s">
+      <c r="A8" s="121"/>
+      <c r="B8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="119" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="121"/>
+      <c r="B10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="119" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="119" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="117"/>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="119" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="119" t="s">
+      <c r="A16" s="121"/>
+      <c r="B16" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="119" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="117"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="119" t="s">
+      <c r="A21" s="121"/>
+      <c r="B21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="119" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="119" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="119" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="119" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="119" t="s">
+      <c r="A27" s="121"/>
+      <c r="B27" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="119" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="121"/>
+      <c r="B29" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="119" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="119" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="117"/>
-      <c r="B32" s="119" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="117"/>
-      <c r="B33" s="119" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="119" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="119" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="117"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="117"/>
-      <c r="B37" s="119" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="117"/>
-      <c r="B38" s="119" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="119" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="117"/>
-      <c r="B40" s="119" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="119" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="119" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="119" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="117"/>
-      <c r="B44" s="119" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="119" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="117"/>
-      <c r="B46" s="119" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="117"/>
-      <c r="B47" s="119" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="117"/>
-      <c r="B48" s="119" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="117"/>
-      <c r="B49" s="119" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="117"/>
-      <c r="B50" s="119" t="s">
+      <c r="A50" s="121"/>
+      <c r="B50" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="117"/>
-      <c r="B51" s="119" t="s">
+      <c r="A51" s="121"/>
+      <c r="B51" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="117"/>
-      <c r="B52" s="119" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="117"/>
-      <c r="B53" s="119" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="117"/>
-      <c r="B54" s="119" t="s">
+      <c r="A54" s="121"/>
+      <c r="B54" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="117"/>
-      <c r="B55" s="119" t="s">
+      <c r="A55" s="121"/>
+      <c r="B55" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="117"/>
-      <c r="B56" s="119" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="117"/>
-      <c r="B57" s="119" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="119" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="117"/>
-      <c r="B59" s="119" t="s">
+      <c r="A59" s="121"/>
+      <c r="B59" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="117"/>
-      <c r="B60" s="119" t="s">
+      <c r="A60" s="121"/>
+      <c r="B60" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="117"/>
-      <c r="B61" s="119" t="s">
+      <c r="A61" s="121"/>
+      <c r="B61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="119" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="117"/>
-      <c r="B63" s="119" t="s">
+      <c r="A63" s="121"/>
+      <c r="B63" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="119" t="s">
+      <c r="A64" s="121"/>
+      <c r="B64" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="117"/>
-      <c r="B65" s="119" t="s">
+      <c r="A65" s="121"/>
+      <c r="B65" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="117"/>
-      <c r="B66" s="119" t="s">
+      <c r="A66" s="121"/>
+      <c r="B66" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="117"/>
-      <c r="B67" s="119" t="s">
+      <c r="A67" s="121"/>
+      <c r="B67" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="117"/>
-      <c r="B68" s="119" t="s">
+      <c r="A68" s="121"/>
+      <c r="B68" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="117"/>
-      <c r="B69" s="120" t="s">
+      <c r="A69" s="121"/>
+      <c r="B69" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="117"/>
-      <c r="B70" s="120" t="s">
+      <c r="A70" s="121"/>
+      <c r="B70" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="117"/>
-      <c r="B71" s="120" t="s">
+      <c r="A71" s="121"/>
+      <c r="B71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="117"/>
-      <c r="B72" s="120" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="117"/>
-      <c r="B73" s="120" t="s">
+      <c r="A73" s="121"/>
+      <c r="B73" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="117"/>
-      <c r="B74" s="120" t="s">
+      <c r="A74" s="121"/>
+      <c r="B74" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="117"/>
-      <c r="B75" s="120" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="117"/>
-      <c r="B76" s="120" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="117"/>
-      <c r="B77" s="120" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="117"/>
-      <c r="B78" s="120" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="117"/>
-      <c r="B79" s="120" t="s">
+      <c r="A79" s="121"/>
+      <c r="B79" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="117"/>
-      <c r="B80" s="120" t="s">
+      <c r="A80" s="121"/>
+      <c r="B80" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="114"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="117"/>
-      <c r="B81" s="120" t="s">
+      <c r="A81" s="121"/>
+      <c r="B81" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="117"/>
-      <c r="B82" s="120" t="s">
+      <c r="A82" s="121"/>
+      <c r="B82" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="117"/>
-      <c r="B83" s="120" t="s">
+      <c r="A83" s="121"/>
+      <c r="B83" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="117"/>
-      <c r="B84" s="120" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="117"/>
-      <c r="B85" s="120" t="s">
+      <c r="A85" s="121"/>
+      <c r="B85" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="117"/>
-      <c r="B86" s="120" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="117"/>
-      <c r="B87" s="120" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="117"/>
-      <c r="B88" s="120" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="117"/>
-      <c r="B89" s="120" t="s">
+      <c r="A89" s="121"/>
+      <c r="B89" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="117"/>
-      <c r="B90" s="120" t="s">
+      <c r="A90" s="121"/>
+      <c r="B90" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="117"/>
-      <c r="B91" s="120" t="s">
+      <c r="A91" s="121"/>
+      <c r="B91" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="117"/>
-      <c r="B92" s="120" t="s">
+      <c r="A92" s="121"/>
+      <c r="B92" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="117"/>
-      <c r="B93" s="120" t="s">
+      <c r="A93" s="121"/>
+      <c r="B93" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="114"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="117"/>
-      <c r="B94" s="120" t="s">
+      <c r="A94" s="121"/>
+      <c r="B94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="117"/>
-      <c r="B95" s="120" t="s">
+      <c r="A95" s="121"/>
+      <c r="B95" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="114"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="117"/>
-      <c r="B96" s="120" t="s">
+      <c r="A96" s="121"/>
+      <c r="B96" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="114"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="117"/>
-      <c r="B97" s="120" t="s">
+      <c r="A97" s="121"/>
+      <c r="B97" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="117"/>
-      <c r="B98" s="120" t="s">
+      <c r="A98" s="121"/>
+      <c r="B98" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="117"/>
-      <c r="B99" s="120" t="s">
+      <c r="A99" s="121"/>
+      <c r="B99" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="117"/>
-      <c r="B100" s="120" t="s">
+      <c r="A100" s="121"/>
+      <c r="B100" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="114"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="117"/>
-      <c r="B101" s="120" t="s">
+      <c r="A101" s="121"/>
+      <c r="B101" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="117"/>
-      <c r="B102" s="120" t="s">
+      <c r="A102" s="121"/>
+      <c r="B102" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="117"/>
-      <c r="B103" s="120" t="s">
+      <c r="A103" s="121"/>
+      <c r="B103" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="114"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="117"/>
-      <c r="B104" s="120" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="114"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="117"/>
-      <c r="B105" s="120" t="s">
+      <c r="A105" s="121"/>
+      <c r="B105" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="114"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="114"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="117"/>
-      <c r="B106" s="120" t="s">
+      <c r="A106" s="121"/>
+      <c r="B106" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="114"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="117"/>
-      <c r="B107" s="120" t="s">
+      <c r="A107" s="121"/>
+      <c r="B107" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="114"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="117"/>
-      <c r="B108" s="120" t="s">
+      <c r="A108" s="121"/>
+      <c r="B108" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="114"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="117"/>
-      <c r="B109" s="120" t="s">
+      <c r="A109" s="121"/>
+      <c r="B109" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="114"/>
-      <c r="D109" s="114"/>
-      <c r="E109" s="114"/>
-      <c r="F109" s="114"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="117"/>
-      <c r="B110" s="120" t="s">
+      <c r="A110" s="121"/>
+      <c r="B110" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="114"/>
-      <c r="D110" s="114"/>
-      <c r="E110" s="114"/>
-      <c r="F110" s="114"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="117"/>
-      <c r="B111" s="120" t="s">
+      <c r="A111" s="121"/>
+      <c r="B111" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="117"/>
-      <c r="B112" s="120" t="s">
+      <c r="A112" s="121"/>
+      <c r="B112" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="117"/>
-      <c r="B113" s="120" t="s">
+      <c r="A113" s="121"/>
+      <c r="B113" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="114"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="114"/>
-      <c r="F113" s="114"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="117"/>
-      <c r="B114" s="120" t="s">
+      <c r="A114" s="121"/>
+      <c r="B114" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="114"/>
-      <c r="D114" s="114"/>
-      <c r="E114" s="114"/>
-      <c r="F114" s="114"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="117"/>
-      <c r="B115" s="120" t="s">
+      <c r="A115" s="121"/>
+      <c r="B115" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="114"/>
-      <c r="D115" s="114"/>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="117"/>
-      <c r="B116" s="120" t="s">
+      <c r="A116" s="121"/>
+      <c r="B116" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="114"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="114"/>
-      <c r="F116" s="114"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="117"/>
-      <c r="B117" s="120" t="s">
+      <c r="A117" s="121"/>
+      <c r="B117" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="114"/>
-      <c r="F117" s="114"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="117"/>
-      <c r="B118" s="120" t="s">
+      <c r="A118" s="121"/>
+      <c r="B118" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="114"/>
-      <c r="D118" s="114"/>
-      <c r="E118" s="114"/>
-      <c r="F118" s="114"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="117"/>
-      <c r="B119" s="120" t="s">
+      <c r="A119" s="121"/>
+      <c r="B119" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="114"/>
-      <c r="D119" s="114"/>
-      <c r="E119" s="114"/>
-      <c r="F119" s="114"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="117"/>
-      <c r="B120" s="120" t="s">
+      <c r="A120" s="121"/>
+      <c r="B120" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="114"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="117"/>
-      <c r="B121" s="120" t="s">
+      <c r="A121" s="121"/>
+      <c r="B121" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="114"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="114"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="117"/>
-      <c r="B122" s="120" t="s">
+      <c r="A122" s="121"/>
+      <c r="B122" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="114"/>
-      <c r="D122" s="114"/>
-      <c r="E122" s="114"/>
-      <c r="F122" s="114"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="117"/>
-      <c r="B123" s="120" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="114"/>
-      <c r="D123" s="114"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="114"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="117"/>
-      <c r="B124" s="120" t="s">
+      <c r="A124" s="121"/>
+      <c r="B124" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="114"/>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="114"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="B125" s="21"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="121" t="s">
+      <c r="A126" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="119" t="s">
+      <c r="B126" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="114"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="122"/>
-      <c r="B127" s="119" t="s">
+      <c r="A127" s="126"/>
+      <c r="B127" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="114"/>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="122"/>
-      <c r="B128" s="119" t="s">
+      <c r="A128" s="126"/>
+      <c r="B128" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="122"/>
-      <c r="B129" s="119" t="s">
+      <c r="A129" s="126"/>
+      <c r="B129" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="114"/>
-      <c r="D129" s="114"/>
-      <c r="E129" s="114"/>
-      <c r="F129" s="114"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="122"/>
-      <c r="B130" s="119" t="s">
+      <c r="A130" s="126"/>
+      <c r="B130" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="114"/>
-      <c r="D130" s="114"/>
-      <c r="E130" s="114"/>
-      <c r="F130" s="114"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="122"/>
-      <c r="B131" s="119" t="s">
+      <c r="A131" s="126"/>
+      <c r="B131" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="114"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="114"/>
-      <c r="F131" s="114"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="122"/>
-      <c r="B132" s="119" t="s">
+      <c r="A132" s="126"/>
+      <c r="B132" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="114"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="114"/>
-      <c r="F132" s="114"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="122"/>
-      <c r="B133" s="119" t="s">
+      <c r="A133" s="126"/>
+      <c r="B133" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="114"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="122"/>
-      <c r="B134" s="119" t="s">
+      <c r="A134" s="126"/>
+      <c r="B134" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="114"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="114"/>
-      <c r="F134" s="114"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="122"/>
-      <c r="B135" s="119" t="s">
+      <c r="A135" s="126"/>
+      <c r="B135" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="114"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="114"/>
-      <c r="F135" s="114"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="122"/>
-      <c r="B136" s="119" t="s">
+      <c r="A136" s="126"/>
+      <c r="B136" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="114"/>
-      <c r="D136" s="114"/>
-      <c r="E136" s="114"/>
-      <c r="F136" s="114"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="122"/>
-      <c r="B137" s="119" t="s">
+      <c r="A137" s="126"/>
+      <c r="B137" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="114"/>
-      <c r="D137" s="114"/>
-      <c r="E137" s="114"/>
-      <c r="F137" s="114"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="122"/>
-      <c r="B138" s="119" t="s">
+      <c r="A138" s="126"/>
+      <c r="B138" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="114"/>
-      <c r="D138" s="114"/>
-      <c r="E138" s="114"/>
-      <c r="F138" s="114"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="122"/>
-      <c r="B139" s="119" t="s">
+      <c r="A139" s="126"/>
+      <c r="B139" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="114"/>
-      <c r="D139" s="114"/>
-      <c r="E139" s="114"/>
-      <c r="F139" s="114"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="122"/>
-      <c r="B140" s="119" t="s">
+      <c r="A140" s="126"/>
+      <c r="B140" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="114"/>
-      <c r="D140" s="114"/>
-      <c r="E140" s="114"/>
-      <c r="F140" s="114"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="122"/>
-      <c r="B141" s="119" t="s">
+      <c r="A141" s="126"/>
+      <c r="B141" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="114"/>
-      <c r="D141" s="114"/>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="122"/>
-      <c r="B142" s="119" t="s">
+      <c r="A142" s="126"/>
+      <c r="B142" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="114"/>
-      <c r="D142" s="114"/>
-      <c r="E142" s="114"/>
-      <c r="F142" s="114"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="122"/>
-      <c r="B143" s="119" t="s">
+      <c r="A143" s="126"/>
+      <c r="B143" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="114"/>
-      <c r="D143" s="114"/>
-      <c r="E143" s="114"/>
-      <c r="F143" s="114"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="122"/>
-      <c r="B144" s="119" t="s">
+      <c r="A144" s="126"/>
+      <c r="B144" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="114"/>
-      <c r="D144" s="114"/>
-      <c r="E144" s="114"/>
-      <c r="F144" s="114"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="67"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="122"/>
-      <c r="B145" s="119" t="s">
+      <c r="A145" s="126"/>
+      <c r="B145" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="114"/>
-      <c r="D145" s="114"/>
-      <c r="E145" s="114"/>
-      <c r="F145" s="114"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="122"/>
-      <c r="B146" s="119" t="s">
+      <c r="A146" s="126"/>
+      <c r="B146" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="114"/>
-      <c r="D146" s="114"/>
-      <c r="E146" s="114"/>
-      <c r="F146" s="114"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="122"/>
-      <c r="B147" s="119" t="s">
+      <c r="A147" s="126"/>
+      <c r="B147" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="114"/>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
-      <c r="F147" s="114"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="122"/>
-      <c r="B148" s="119" t="s">
+      <c r="A148" s="126"/>
+      <c r="B148" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="114"/>
-      <c r="D148" s="114"/>
-      <c r="E148" s="114"/>
-      <c r="F148" s="114"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="122"/>
-      <c r="B149" s="119" t="s">
+      <c r="A149" s="126"/>
+      <c r="B149" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="114"/>
-      <c r="D149" s="114"/>
-      <c r="E149" s="114"/>
-      <c r="F149" s="114"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="122"/>
-      <c r="B150" s="119" t="s">
+      <c r="A150" s="126"/>
+      <c r="B150" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="114"/>
-      <c r="D150" s="114"/>
-      <c r="E150" s="114"/>
-      <c r="F150" s="114"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="122"/>
-      <c r="B151" s="119" t="s">
+      <c r="A151" s="126"/>
+      <c r="B151" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="114"/>
-      <c r="D151" s="114"/>
-      <c r="E151" s="114"/>
-      <c r="F151" s="114"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="67"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="122"/>
-      <c r="B152" s="119" t="s">
+      <c r="A152" s="126"/>
+      <c r="B152" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="114"/>
-      <c r="D152" s="114"/>
-      <c r="E152" s="114"/>
-      <c r="F152" s="114"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="122"/>
-      <c r="B153" s="119" t="s">
+      <c r="A153" s="126"/>
+      <c r="B153" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="114"/>
-      <c r="E153" s="114"/>
-      <c r="F153" s="114"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="122"/>
-      <c r="B154" s="119" t="s">
+      <c r="A154" s="126"/>
+      <c r="B154" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="114"/>
-      <c r="D154" s="114"/>
-      <c r="E154" s="114"/>
-      <c r="F154" s="114"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="122"/>
-      <c r="B155" s="119" t="s">
+      <c r="A155" s="126"/>
+      <c r="B155" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="114"/>
-      <c r="D155" s="114"/>
-      <c r="E155" s="114"/>
-      <c r="F155" s="114"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="122"/>
-      <c r="B156" s="119" t="s">
+      <c r="A156" s="126"/>
+      <c r="B156" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="114"/>
-      <c r="D156" s="114"/>
-      <c r="E156" s="114"/>
-      <c r="F156" s="114"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="122"/>
-      <c r="B157" s="120" t="s">
+      <c r="A157" s="126"/>
+      <c r="B157" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="114"/>
-      <c r="D157" s="114"/>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="122"/>
-      <c r="B158" s="120" t="s">
+      <c r="A158" s="126"/>
+      <c r="B158" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="114"/>
-      <c r="D158" s="114"/>
-      <c r="E158" s="114"/>
-      <c r="F158" s="114"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="122"/>
-      <c r="B159" s="120" t="s">
+      <c r="A159" s="126"/>
+      <c r="B159" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="114"/>
-      <c r="D159" s="114"/>
-      <c r="E159" s="114"/>
-      <c r="F159" s="114"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="122"/>
-      <c r="B160" s="120" t="s">
+      <c r="A160" s="126"/>
+      <c r="B160" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="114"/>
-      <c r="D160" s="114"/>
-      <c r="E160" s="114"/>
-      <c r="F160" s="114"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
     </row>
     <row r="161" ht="15.75" thickTop="1"/>
   </sheetData>

--- a/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.2.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.2.0.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="0" windowWidth="6090" windowHeight="8715"/>
+    <workbookView xWindow="-12" yWindow="3624" windowWidth="15408" windowHeight="3240" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
     <sheet name="ORIGEN FUNCIONALES" sheetId="2" r:id="rId2"/>
     <sheet name="ORIGEN NO FUNCIONALES" sheetId="3" r:id="rId3"/>
-    <sheet name="SUBSISTE CLIENTE" sheetId="4" r:id="rId4"/>
-    <sheet name="SUBSISTE SERVIDOR" sheetId="5" r:id="rId5"/>
+    <sheet name="SUBSISTEMA CLIENTE" sheetId="4" r:id="rId4"/>
+    <sheet name="SUBSISTEMA SERVIDOR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -697,6 +697,12 @@
   <si>
     <t>TRAZABILIDAD SDD SERVIDOR</t>
   </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Partida, Banco</t>
+  </si>
 </sst>
 </file>
 
@@ -1313,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,6 +1683,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,7 +1707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1984,20 +1993,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="7" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:20" ht="27" thickTop="1" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>2</v>
       </c>
@@ -2023,7 +2032,7 @@
       <c r="S1" s="82"/>
       <c r="T1" s="82"/>
     </row>
-    <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:20" ht="27" thickTop="1" thickBot="1">
       <c r="A2" s="91"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93"/>
@@ -2135,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="44" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2260,7 @@
       </c>
       <c r="T6" s="53"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2312,7 @@
       </c>
       <c r="T7" s="53"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="44" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2362,7 @@
       </c>
       <c r="T8" s="53"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
@@ -2405,7 +2414,7 @@
       </c>
       <c r="T9" s="53"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="44" t="s">
         <v>16</v>
       </c>
@@ -2457,7 +2466,7 @@
       </c>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="44" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +2516,7 @@
       </c>
       <c r="T11" s="53"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="44" t="s">
         <v>18</v>
       </c>
@@ -2557,7 +2566,7 @@
       </c>
       <c r="T12" s="53"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="44" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2618,7 @@
       </c>
       <c r="T13" s="53"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="44" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="44" t="s">
         <v>21</v>
       </c>
@@ -2725,7 +2734,7 @@
       </c>
       <c r="T15" s="53"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="44" t="s">
         <v>22</v>
       </c>
@@ -2775,7 +2784,7 @@
       </c>
       <c r="T16" s="53"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="44" t="s">
         <v>23</v>
       </c>
@@ -2825,7 +2834,7 @@
       </c>
       <c r="T17" s="53"/>
     </row>
-    <row r="18" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="44" t="s">
         <v>24</v>
       </c>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="T19" s="53"/>
     </row>
-    <row r="20" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="44" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +2986,7 @@
       </c>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="44" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="T21" s="53"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="44" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3086,7 @@
       </c>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3136,7 @@
       </c>
       <c r="T23" s="53"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="44" t="s">
         <v>30</v>
       </c>
@@ -3191,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="44" t="s">
         <v>31</v>
       </c>
@@ -3243,7 +3252,7 @@
       </c>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="44" t="s">
         <v>32</v>
       </c>
@@ -3293,7 +3302,7 @@
       </c>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="44" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="44" t="s">
         <v>34</v>
       </c>
@@ -3407,7 +3416,7 @@
       </c>
       <c r="T28" s="53"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="44" t="s">
         <v>35</v>
       </c>
@@ -3457,7 +3466,7 @@
       </c>
       <c r="T29" s="53"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="44" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3516,7 @@
       </c>
       <c r="T30" s="53"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="44" t="s">
         <v>37</v>
       </c>
@@ -3557,7 +3566,7 @@
       </c>
       <c r="T31" s="53"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="44" t="s">
         <v>38</v>
       </c>
@@ -3607,7 +3616,7 @@
       </c>
       <c r="T32" s="53"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="44" t="s">
         <v>39</v>
       </c>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="T33" s="53"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="44" t="s">
         <v>40</v>
       </c>
@@ -3707,7 +3716,7 @@
       </c>
       <c r="T34" s="53"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="44" t="s">
         <v>41</v>
       </c>
@@ -3757,7 +3766,7 @@
       </c>
       <c r="T35" s="53"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="44" t="s">
         <v>42</v>
       </c>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="T36" s="53"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="44" t="s">
         <v>43</v>
       </c>
@@ -3857,7 +3866,7 @@
       </c>
       <c r="T37" s="53"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="44" t="s">
         <v>44</v>
       </c>
@@ -3907,7 +3916,7 @@
       </c>
       <c r="T38" s="53"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="44" t="s">
         <v>45</v>
       </c>
@@ -3957,7 +3966,7 @@
       </c>
       <c r="T39" s="53"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="44" t="s">
         <v>46</v>
       </c>
@@ -4007,7 +4016,7 @@
       </c>
       <c r="T40" s="53"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="44" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4066,7 @@
       </c>
       <c r="T41" s="53"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="44" t="s">
         <v>48</v>
       </c>
@@ -4107,7 +4116,7 @@
       </c>
       <c r="T42" s="53"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="44" t="s">
         <v>49</v>
       </c>
@@ -4157,7 +4166,7 @@
       </c>
       <c r="T43" s="53"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="44" t="s">
         <v>50</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="44" t="s">
         <v>51</v>
       </c>
@@ -4271,7 +4280,7 @@
       </c>
       <c r="T45" s="53"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="44" t="s">
         <v>52</v>
       </c>
@@ -4321,7 +4330,7 @@
       </c>
       <c r="T46" s="53"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="44" t="s">
         <v>53</v>
       </c>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="T47" s="53"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="44" t="s">
         <v>54</v>
       </c>
@@ -4421,7 +4430,7 @@
       </c>
       <c r="T48" s="53"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="44" t="s">
         <v>55</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="44" t="s">
         <v>56</v>
       </c>
@@ -4535,7 +4544,7 @@
       </c>
       <c r="T50" s="53"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="44" t="s">
         <v>57</v>
       </c>
@@ -4585,7 +4594,7 @@
       </c>
       <c r="T51" s="53"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="44" t="s">
         <v>58</v>
       </c>
@@ -4635,7 +4644,7 @@
       </c>
       <c r="T52" s="53"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="44" t="s">
         <v>59</v>
       </c>
@@ -4685,7 +4694,7 @@
       </c>
       <c r="T53" s="53"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="44" t="s">
         <v>60</v>
       </c>
@@ -4735,7 +4744,7 @@
       </c>
       <c r="T54" s="53"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="44" t="s">
         <v>61</v>
       </c>
@@ -4785,7 +4794,7 @@
       </c>
       <c r="T55" s="53"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="44" t="s">
         <v>62</v>
       </c>
@@ -4849,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="44" t="s">
         <v>63</v>
       </c>
@@ -4899,7 +4908,7 @@
       </c>
       <c r="T57" s="53"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="44" t="s">
         <v>64</v>
       </c>
@@ -4949,7 +4958,7 @@
       </c>
       <c r="T58" s="53"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="44" t="s">
         <v>65</v>
       </c>
@@ -4999,7 +5008,7 @@
       </c>
       <c r="T59" s="53"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="44" t="s">
         <v>66</v>
       </c>
@@ -5049,7 +5058,7 @@
       </c>
       <c r="T60" s="53"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="44" t="s">
         <v>67</v>
       </c>
@@ -5099,7 +5108,7 @@
       </c>
       <c r="T61" s="53"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="44" t="s">
         <v>68</v>
       </c>
@@ -5151,7 +5160,7 @@
       </c>
       <c r="T62" s="53"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="44" t="s">
         <v>69</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="44" t="s">
         <v>70</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="44" t="s">
         <v>71</v>
       </c>
@@ -5329,7 +5338,7 @@
       </c>
       <c r="T65" s="53"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="44" t="s">
         <v>72</v>
       </c>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="T66" s="53"/>
     </row>
-    <row r="67" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="44" t="s">
         <v>73</v>
       </c>
@@ -5429,7 +5438,7 @@
       </c>
       <c r="T67" s="53"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="44" t="s">
         <v>74</v>
       </c>
@@ -5479,7 +5488,7 @@
       </c>
       <c r="T68" s="53"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="44" t="s">
         <v>75</v>
       </c>
@@ -5529,7 +5538,7 @@
       </c>
       <c r="T69" s="53"/>
     </row>
-    <row r="70" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="45" t="s">
         <v>76</v>
       </c>
@@ -5579,7 +5588,7 @@
       </c>
       <c r="T70" s="53"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="45" t="s">
         <v>77</v>
       </c>
@@ -5629,7 +5638,7 @@
       </c>
       <c r="T71" s="53"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="45" t="s">
         <v>78</v>
       </c>
@@ -5679,7 +5688,7 @@
       </c>
       <c r="T72" s="53"/>
     </row>
-    <row r="73" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="45" t="s">
         <v>79</v>
       </c>
@@ -5729,7 +5738,7 @@
       </c>
       <c r="T73" s="53"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="45" t="s">
         <v>80</v>
       </c>
@@ -5781,7 +5790,7 @@
       </c>
       <c r="T74" s="53"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="45" t="s">
         <v>81</v>
       </c>
@@ -5831,7 +5840,7 @@
       </c>
       <c r="T75" s="53"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="45" t="s">
         <v>82</v>
       </c>
@@ -5895,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="45" t="s">
         <v>83</v>
       </c>
@@ -5959,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="45" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="45" t="s">
         <v>85</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="45" t="s">
         <v>86</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="45" t="s">
         <v>87</v>
       </c>
@@ -6203,7 +6212,7 @@
       </c>
       <c r="T81" s="53"/>
     </row>
-    <row r="82" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="45" t="s">
         <v>88</v>
       </c>
@@ -6255,7 +6264,7 @@
       </c>
       <c r="T82" s="53"/>
     </row>
-    <row r="83" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="45" t="s">
         <v>89</v>
       </c>
@@ -6307,7 +6316,7 @@
       </c>
       <c r="T83" s="53"/>
     </row>
-    <row r="84" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="45" t="s">
         <v>90</v>
       </c>
@@ -6359,7 +6368,7 @@
       </c>
       <c r="T84" s="53"/>
     </row>
-    <row r="85" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="45" t="s">
         <v>91</v>
       </c>
@@ -6411,7 +6420,7 @@
       </c>
       <c r="T85" s="53"/>
     </row>
-    <row r="86" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="45" t="s">
         <v>92</v>
       </c>
@@ -6463,7 +6472,7 @@
       </c>
       <c r="T86" s="53"/>
     </row>
-    <row r="87" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="45" t="s">
         <v>93</v>
       </c>
@@ -6527,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="45" t="s">
         <v>94</v>
       </c>
@@ -6579,7 +6588,7 @@
       </c>
       <c r="T88" s="53"/>
     </row>
-    <row r="89" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="45" t="s">
         <v>95</v>
       </c>
@@ -6631,7 +6640,7 @@
       </c>
       <c r="T89" s="53"/>
     </row>
-    <row r="90" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="45" t="s">
         <v>96</v>
       </c>
@@ -6683,7 +6692,7 @@
       </c>
       <c r="T90" s="53"/>
     </row>
-    <row r="91" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A91" s="45" t="s">
         <v>97</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="45" t="s">
         <v>98</v>
       </c>
@@ -6797,7 +6806,7 @@
       </c>
       <c r="T92" s="53"/>
     </row>
-    <row r="93" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A93" s="45" t="s">
         <v>99</v>
       </c>
@@ -6847,7 +6856,7 @@
       </c>
       <c r="T93" s="53"/>
     </row>
-    <row r="94" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A94" s="45" t="s">
         <v>100</v>
       </c>
@@ -6899,7 +6908,7 @@
       </c>
       <c r="T94" s="53"/>
     </row>
-    <row r="95" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A95" s="45" t="s">
         <v>101</v>
       </c>
@@ -6951,7 +6960,7 @@
       </c>
       <c r="T95" s="53"/>
     </row>
-    <row r="96" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A96" s="45" t="s">
         <v>102</v>
       </c>
@@ -7003,7 +7012,7 @@
       </c>
       <c r="T96" s="53"/>
     </row>
-    <row r="97" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" s="45" t="s">
         <v>103</v>
       </c>
@@ -7055,7 +7064,7 @@
       </c>
       <c r="T97" s="53"/>
     </row>
-    <row r="98" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" s="45" t="s">
         <v>104</v>
       </c>
@@ -7107,7 +7116,7 @@
       </c>
       <c r="T98" s="53"/>
     </row>
-    <row r="99" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" s="45" t="s">
         <v>105</v>
       </c>
@@ -7159,7 +7168,7 @@
       </c>
       <c r="T99" s="53"/>
     </row>
-    <row r="100" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="45" t="s">
         <v>106</v>
       </c>
@@ -7211,7 +7220,7 @@
       </c>
       <c r="T100" s="53"/>
     </row>
-    <row r="101" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" s="45" t="s">
         <v>107</v>
       </c>
@@ -7263,7 +7272,7 @@
       </c>
       <c r="T101" s="53"/>
     </row>
-    <row r="102" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" s="45" t="s">
         <v>108</v>
       </c>
@@ -7315,7 +7324,7 @@
       </c>
       <c r="T102" s="53"/>
     </row>
-    <row r="103" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A103" s="45" t="s">
         <v>109</v>
       </c>
@@ -7367,7 +7376,7 @@
       </c>
       <c r="T103" s="53"/>
     </row>
-    <row r="104" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A104" s="45" t="s">
         <v>110</v>
       </c>
@@ -7419,7 +7428,7 @@
       </c>
       <c r="T104" s="53"/>
     </row>
-    <row r="105" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A105" s="45" t="s">
         <v>111</v>
       </c>
@@ -7469,7 +7478,7 @@
       </c>
       <c r="T105" s="53"/>
     </row>
-    <row r="106" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A106" s="45" t="s">
         <v>112</v>
       </c>
@@ -7521,7 +7530,7 @@
       </c>
       <c r="T106" s="53"/>
     </row>
-    <row r="107" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A107" s="45" t="s">
         <v>113</v>
       </c>
@@ -7573,7 +7582,7 @@
       </c>
       <c r="T107" s="53"/>
     </row>
-    <row r="108" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A108" s="45" t="s">
         <v>114</v>
       </c>
@@ -7637,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A109" s="45" t="s">
         <v>115</v>
       </c>
@@ -7701,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A110" s="45" t="s">
         <v>116</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A111" s="45" t="s">
         <v>117</v>
       </c>
@@ -7829,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A112" s="45" t="s">
         <v>118</v>
       </c>
@@ -7893,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A113" s="45" t="s">
         <v>119</v>
       </c>
@@ -7957,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A114" s="45" t="s">
         <v>120</v>
       </c>
@@ -8021,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A115" s="45" t="s">
         <v>121</v>
       </c>
@@ -8085,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A116" s="45" t="s">
         <v>122</v>
       </c>
@@ -8149,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A117" s="45" t="s">
         <v>123</v>
       </c>
@@ -8213,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A118" s="45" t="s">
         <v>124</v>
       </c>
@@ -8277,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A119" s="45" t="s">
         <v>125</v>
       </c>
@@ -8327,7 +8336,7 @@
       </c>
       <c r="T119" s="53"/>
     </row>
-    <row r="120" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A120" s="46" t="s">
         <v>126</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A121" s="45" t="s">
         <v>127</v>
       </c>
@@ -8443,7 +8452,7 @@
       </c>
       <c r="T121" s="53"/>
     </row>
-    <row r="122" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A122" s="45" t="s">
         <v>128</v>
       </c>
@@ -8493,7 +8502,7 @@
       </c>
       <c r="T122" s="53"/>
     </row>
-    <row r="123" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A123" s="45" t="s">
         <v>129</v>
       </c>
@@ -8557,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="124" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A124" s="47" t="s">
         <v>130</v>
       </c>
@@ -8607,7 +8616,7 @@
       </c>
       <c r="T124" s="53"/>
     </row>
-    <row r="125" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="125" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A125" s="45" t="s">
         <v>131</v>
       </c>
@@ -8657,7 +8666,7 @@
       </c>
       <c r="T125" s="53"/>
     </row>
-    <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A126" s="94" t="s">
         <v>215</v>
       </c>
@@ -8694,7 +8703,7 @@
       <c r="S126" s="49"/>
       <c r="T126" s="53"/>
     </row>
-    <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
+    <row r="127" spans="1:20" ht="27" thickTop="1" thickBot="1">
       <c r="A127" s="77" t="s">
         <v>0</v>
       </c>
@@ -8720,7 +8729,7 @@
       <c r="S127" s="80"/>
       <c r="T127" s="81"/>
     </row>
-    <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="128" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A128" s="78"/>
       <c r="B128" s="60" t="s">
         <v>214</v>
@@ -8778,7 +8787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="129" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A129" s="44" t="s">
         <v>135</v>
       </c>
@@ -8824,7 +8833,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="130" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A130" s="44" t="s">
         <v>136</v>
       </c>
@@ -8870,7 +8879,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="131" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" s="44" t="s">
         <v>137</v>
       </c>
@@ -8916,7 +8925,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="132" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" s="44" t="s">
         <v>138</v>
       </c>
@@ -8962,7 +8971,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="133" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" s="44" t="s">
         <v>139</v>
       </c>
@@ -9008,7 +9017,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="134" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" s="44" t="s">
         <v>140</v>
       </c>
@@ -9054,7 +9063,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="135" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" s="44" t="s">
         <v>141</v>
       </c>
@@ -9100,7 +9109,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="136" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" s="44" t="s">
         <v>142</v>
       </c>
@@ -9144,7 +9153,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="137" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" s="44" t="s">
         <v>143</v>
       </c>
@@ -9188,7 +9197,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" s="44" t="s">
         <v>144</v>
       </c>
@@ -9232,7 +9241,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="139" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A139" s="44" t="s">
         <v>145</v>
       </c>
@@ -9278,7 +9287,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="140" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A140" s="44" t="s">
         <v>146</v>
       </c>
@@ -9324,7 +9333,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="141" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A141" s="44" t="s">
         <v>147</v>
       </c>
@@ -9370,7 +9379,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="142" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A142" s="44" t="s">
         <v>148</v>
       </c>
@@ -9414,7 +9423,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="143" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A143" s="44" t="s">
         <v>149</v>
       </c>
@@ -9458,7 +9467,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="144" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A144" s="44" t="s">
         <v>150</v>
       </c>
@@ -9502,7 +9511,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="145" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A145" s="44" t="s">
         <v>151</v>
       </c>
@@ -9546,7 +9555,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="146" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A146" s="44" t="s">
         <v>152</v>
       </c>
@@ -9590,7 +9599,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="147" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A147" s="44" t="s">
         <v>153</v>
       </c>
@@ -9636,7 +9645,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="148" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A148" s="44" t="s">
         <v>154</v>
       </c>
@@ -9682,7 +9691,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="149" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A149" s="44" t="s">
         <v>155</v>
       </c>
@@ -9728,7 +9737,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="150" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" s="44" t="s">
         <v>156</v>
       </c>
@@ -9774,7 +9783,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="151" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" s="44" t="s">
         <v>157</v>
       </c>
@@ -9820,7 +9829,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="152" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" s="44" t="s">
         <v>158</v>
       </c>
@@ -9866,7 +9875,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="153" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" s="44" t="s">
         <v>159</v>
       </c>
@@ -9910,7 +9919,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="154" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" s="44" t="s">
         <v>160</v>
       </c>
@@ -9954,7 +9963,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="155" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" s="44" t="s">
         <v>188</v>
       </c>
@@ -10000,7 +10009,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="156" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" s="45" t="s">
         <v>189</v>
       </c>
@@ -10046,7 +10055,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="157" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" s="45" t="s">
         <v>190</v>
       </c>
@@ -10092,7 +10101,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="158" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" s="45" t="s">
         <v>191</v>
       </c>
@@ -10138,7 +10147,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="159" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A159" s="45" t="s">
         <v>192</v>
       </c>
@@ -10184,7 +10193,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="1:24" ht="15.75" thickTop="1"/>
+    <row r="160" spans="1:24" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="D126:F126"/>
@@ -10934,10 +10943,10 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="24" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="24" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
@@ -10978,7 +10987,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="29.25" thickBot="1">
+    <row r="2" spans="1:32" ht="29.4" thickBot="1">
       <c r="A2" s="29"/>
       <c r="B2" s="105"/>
       <c r="C2" s="22" t="s">
@@ -11018,7 +11027,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
       <c r="B3" s="105"/>
       <c r="C3" s="11" t="s">
@@ -11088,7 +11097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="106" t="s">
         <v>165</v>
       </c>
@@ -11118,7 +11127,7 @@
       <c r="W4" s="31"/>
       <c r="X4" s="31"/>
     </row>
-    <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -11190,7 +11199,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="107"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -11262,7 +11271,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="107"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -11334,7 +11343,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="107"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -11406,7 +11415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="107"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -11478,7 +11487,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="107"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -11550,7 +11559,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="107"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -11622,7 +11631,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="107"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -11694,7 +11703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="107"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -11722,7 +11731,7 @@
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="107"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -11794,7 +11803,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="107"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -11866,7 +11875,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:32" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="107"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -11938,7 +11947,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="107"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -12010,7 +12019,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="107"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -12082,7 +12091,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="107"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -12154,7 +12163,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="107"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -12226,7 +12235,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="107"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -12298,7 +12307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="107"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -12370,7 +12379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="107"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
@@ -12398,7 +12407,7 @@
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="107"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
@@ -12470,7 +12479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="107"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
@@ -12542,7 +12551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="107"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -12570,7 +12579,7 @@
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="107"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
@@ -12642,7 +12651,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="107"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
@@ -12714,7 +12723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="107"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
@@ -12786,7 +12795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="107"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
@@ -12858,7 +12867,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="107"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
@@ -12930,7 +12939,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="107"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
@@ -13002,7 +13011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="107"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
@@ -13074,7 +13083,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="107"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
@@ -13146,7 +13155,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="107"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
@@ -13218,7 +13227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="107"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
@@ -13290,7 +13299,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="107"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
@@ -13362,7 +13371,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="107"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
@@ -13434,7 +13443,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="107"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
@@ -13506,7 +13515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="107"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
@@ -13578,7 +13587,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="107"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
@@ -13650,7 +13659,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="107"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
@@ -13722,7 +13731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="107"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
@@ -13750,7 +13759,7 @@
       <c r="W43" s="40"/>
       <c r="X43" s="40"/>
     </row>
-    <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="107"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
@@ -13822,7 +13831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="107"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
@@ -13894,7 +13903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="107"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
@@ -13966,7 +13975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="107"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
@@ -14038,7 +14047,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="107"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -14066,7 +14075,7 @@
       <c r="W48" s="31"/>
       <c r="X48" s="31"/>
     </row>
-    <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="107"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
@@ -14138,7 +14147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="107"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
@@ -14210,7 +14219,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="107"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
@@ -14282,7 +14291,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="107"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
@@ -14354,7 +14363,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="107"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
@@ -14426,7 +14435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="107"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
@@ -14498,7 +14507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="107"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
@@ -14526,7 +14535,7 @@
       <c r="W55" s="31"/>
       <c r="X55" s="31"/>
     </row>
-    <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="107"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
@@ -14598,7 +14607,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="107"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
@@ -14670,7 +14679,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="107"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
@@ -14742,7 +14751,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="107"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
@@ -14814,7 +14823,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="107"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
@@ -14886,7 +14895,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="107"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
@@ -14958,7 +14967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="107"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
@@ -14986,7 +14995,7 @@
       <c r="W62" s="31"/>
       <c r="X62" s="31"/>
     </row>
-    <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="107"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
@@ -15014,7 +15023,7 @@
       <c r="W63" s="31"/>
       <c r="X63" s="31"/>
     </row>
-    <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="107"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
@@ -15086,7 +15095,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="107"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
@@ -15158,7 +15167,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="107"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
@@ -15230,7 +15239,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="107"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
@@ -15302,7 +15311,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="107"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
@@ -15374,7 +15383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="107"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
@@ -15446,7 +15455,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="107"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
@@ -15518,7 +15527,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="107"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -15550,7 +15559,7 @@
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
     </row>
-    <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="107"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
@@ -15582,7 +15591,7 @@
       <c r="W72" s="32"/>
       <c r="X72" s="32"/>
     </row>
-    <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="107"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
@@ -15614,7 +15623,7 @@
       <c r="W73" s="32"/>
       <c r="X73" s="32"/>
     </row>
-    <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="107"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
@@ -15646,7 +15655,7 @@
       <c r="W74" s="32"/>
       <c r="X74" s="32"/>
     </row>
-    <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="107"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
@@ -15674,7 +15683,7 @@
       <c r="W75" s="31"/>
       <c r="X75" s="31"/>
     </row>
-    <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="107"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
@@ -15702,7 +15711,7 @@
       <c r="W76" s="31"/>
       <c r="X76" s="31"/>
     </row>
-    <row r="77" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="107"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
@@ -15730,7 +15739,7 @@
       <c r="W77" s="31"/>
       <c r="X77" s="31"/>
     </row>
-    <row r="78" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="107"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
@@ -15758,7 +15767,7 @@
       <c r="W78" s="31"/>
       <c r="X78" s="31"/>
     </row>
-    <row r="79" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="107"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
@@ -15786,7 +15795,7 @@
       <c r="W79" s="31"/>
       <c r="X79" s="31"/>
     </row>
-    <row r="80" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="107"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
@@ -15816,7 +15825,7 @@
       <c r="W80" s="32"/>
       <c r="X80" s="32"/>
     </row>
-    <row r="81" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="107"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
@@ -15846,7 +15855,7 @@
       <c r="W81" s="32"/>
       <c r="X81" s="32"/>
     </row>
-    <row r="82" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="107"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
@@ -15878,7 +15887,7 @@
       <c r="W82" s="32"/>
       <c r="X82" s="32"/>
     </row>
-    <row r="83" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="107"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
@@ -15908,7 +15917,7 @@
       <c r="W83" s="32"/>
       <c r="X83" s="32"/>
     </row>
-    <row r="84" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="107"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
@@ -15938,7 +15947,7 @@
       <c r="W84" s="32"/>
       <c r="X84" s="32"/>
     </row>
-    <row r="85" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="107"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
@@ -15970,7 +15979,7 @@
       <c r="W85" s="32"/>
       <c r="X85" s="32"/>
     </row>
-    <row r="86" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="107"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
@@ -15998,7 +16007,7 @@
       <c r="W86" s="31"/>
       <c r="X86" s="31"/>
     </row>
-    <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="107"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
@@ -16030,7 +16039,7 @@
       <c r="W87" s="32"/>
       <c r="X87" s="32"/>
     </row>
-    <row r="88" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="107"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
@@ -16062,7 +16071,7 @@
       <c r="W88" s="32"/>
       <c r="X88" s="32"/>
     </row>
-    <row r="89" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="107"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
@@ -16098,7 +16107,7 @@
       <c r="W89" s="32"/>
       <c r="X89" s="32"/>
     </row>
-    <row r="90" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="107"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
@@ -16126,7 +16135,7 @@
       <c r="W90" s="31"/>
       <c r="X90" s="31"/>
     </row>
-    <row r="91" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A91" s="107"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
@@ -16198,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="107"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
@@ -16270,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A93" s="107"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
@@ -16342,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A94" s="107"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
@@ -16414,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A95" s="107"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
@@ -16486,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A96" s="107"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
@@ -16558,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" s="107"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
@@ -16630,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" s="107"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
@@ -16702,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" s="107"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
@@ -16774,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="107"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
@@ -16846,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" s="107"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
@@ -16918,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" s="107"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
@@ -16990,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A103" s="107"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
@@ -17062,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A104" s="107"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
@@ -17134,7 +17143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A105" s="107"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
@@ -17162,7 +17171,7 @@
       <c r="W105" s="31"/>
       <c r="X105" s="31"/>
     </row>
-    <row r="106" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A106" s="107"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
@@ -17234,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A107" s="107"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
@@ -17262,7 +17271,7 @@
       <c r="W107" s="31"/>
       <c r="X107" s="31"/>
     </row>
-    <row r="108" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A108" s="107"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
@@ -17290,7 +17299,7 @@
       <c r="W108" s="31"/>
       <c r="X108" s="31"/>
     </row>
-    <row r="109" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A109" s="107"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
@@ -17318,7 +17327,7 @@
       <c r="W109" s="31"/>
       <c r="X109" s="31"/>
     </row>
-    <row r="110" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A110" s="107"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
@@ -17346,7 +17355,7 @@
       <c r="W110" s="31"/>
       <c r="X110" s="31"/>
     </row>
-    <row r="111" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A111" s="107"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
@@ -17374,7 +17383,7 @@
       <c r="W111" s="31"/>
       <c r="X111" s="31"/>
     </row>
-    <row r="112" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A112" s="107"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
@@ -17402,7 +17411,7 @@
       <c r="W112" s="31"/>
       <c r="X112" s="31"/>
     </row>
-    <row r="113" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A113" s="107"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
@@ -17430,7 +17439,7 @@
       <c r="W113" s="31"/>
       <c r="X113" s="31"/>
     </row>
-    <row r="114" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A114" s="107"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
@@ -17458,7 +17467,7 @@
       <c r="W114" s="31"/>
       <c r="X114" s="31"/>
     </row>
-    <row r="115" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A115" s="107"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
@@ -17486,7 +17495,7 @@
       <c r="W115" s="31"/>
       <c r="X115" s="31"/>
     </row>
-    <row r="116" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A116" s="107"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
@@ -17514,7 +17523,7 @@
       <c r="W116" s="31"/>
       <c r="X116" s="31"/>
     </row>
-    <row r="117" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A117" s="107"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
@@ -17542,7 +17551,7 @@
       <c r="W117" s="31"/>
       <c r="X117" s="31"/>
     </row>
-    <row r="118" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A118" s="107"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
@@ -17614,7 +17623,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A119" s="107"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
@@ -17642,7 +17651,7 @@
       <c r="W119" s="31"/>
       <c r="X119" s="31"/>
     </row>
-    <row r="120" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A120" s="107"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
@@ -17714,7 +17723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A121" s="107"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
@@ -17786,7 +17795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A122" s="107"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
@@ -17814,7 +17823,7 @@
       <c r="W122" s="31"/>
       <c r="X122" s="31"/>
     </row>
-    <row r="123" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A123" s="107"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
@@ -17842,7 +17851,7 @@
       <c r="W123" s="31"/>
       <c r="X123" s="31"/>
     </row>
-    <row r="124" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+    <row r="124" spans="1:24" ht="15.6" thickTop="1" thickBot="1">
       <c r="A124" s="108"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
@@ -17914,7 +17923,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="19.5" thickTop="1">
+    <row r="125" spans="1:24" ht="18.600000000000001" thickTop="1">
       <c r="A125" s="3"/>
     </row>
   </sheetData>
@@ -17937,9 +17946,9 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="4.7109375" style="13"/>
+    <col min="3" max="4" width="4.6640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
@@ -18073,7 +18082,7 @@
       <c r="DR1" s="36"/>
       <c r="DS1" s="37"/>
     </row>
-    <row r="2" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="17" t="s">
@@ -18779,7 +18788,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="112"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
@@ -19116,7 +19125,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="112"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
@@ -19453,7 +19462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="112"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
@@ -19790,7 +19799,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="112"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
@@ -20127,7 +20136,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="112"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
@@ -20466,7 +20475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:123" s="21" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="112"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
@@ -20805,7 +20814,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="112"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
@@ -21144,7 +21153,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="112"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
@@ -21483,7 +21492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="112"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
@@ -21610,7 +21619,7 @@
       <c r="DR12" s="33"/>
       <c r="DS12" s="33"/>
     </row>
-    <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="112"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
@@ -21737,7 +21746,7 @@
       <c r="DR13" s="33"/>
       <c r="DS13" s="33"/>
     </row>
-    <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="112"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
@@ -21864,7 +21873,7 @@
       <c r="DR14" s="33"/>
       <c r="DS14" s="33"/>
     </row>
-    <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="112"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
@@ -21991,7 +22000,7 @@
       <c r="DR15" s="33"/>
       <c r="DS15" s="33"/>
     </row>
-    <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="112"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
@@ -22118,7 +22127,7 @@
       <c r="DR16" s="33"/>
       <c r="DS16" s="33"/>
     </row>
-    <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="112"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
@@ -22245,7 +22254,7 @@
       <c r="DR17" s="33"/>
       <c r="DS17" s="33"/>
     </row>
-    <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="112"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
@@ -22584,7 +22593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="112"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
@@ -22711,7 +22720,7 @@
       <c r="DR19" s="40"/>
       <c r="DS19" s="40"/>
     </row>
-    <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="112"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
@@ -23050,7 +23059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="112"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
@@ -23389,7 +23398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="112"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
@@ -23728,7 +23737,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="112"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
@@ -24067,7 +24076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="112"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
@@ -24398,7 +24407,7 @@
       <c r="DR24" s="33"/>
       <c r="DS24" s="33"/>
     </row>
-    <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="112"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
@@ -24525,7 +24534,7 @@
       <c r="DR25" s="34"/>
       <c r="DS25" s="34"/>
     </row>
-    <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="112"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
@@ -24652,7 +24661,7 @@
       <c r="DR26" s="34"/>
       <c r="DS26" s="34"/>
     </row>
-    <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="112"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
@@ -24779,7 +24788,7 @@
       <c r="DR27" s="34"/>
       <c r="DS27" s="34"/>
     </row>
-    <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="112"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
@@ -24958,7 +24967,7 @@
       <c r="DR28" s="33"/>
       <c r="DS28" s="33"/>
     </row>
-    <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="112"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
@@ -25137,7 +25146,7 @@
       <c r="DR29" s="33"/>
       <c r="DS29" s="33"/>
     </row>
-    <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="112"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
@@ -25316,7 +25325,7 @@
       <c r="DR30" s="33"/>
       <c r="DS30" s="33"/>
     </row>
-    <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="112"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
@@ -25495,7 +25504,7 @@
       <c r="DR31" s="33"/>
       <c r="DS31" s="33"/>
     </row>
-    <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="112"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
@@ -25674,7 +25683,7 @@
       <c r="DR32" s="33"/>
       <c r="DS32" s="33"/>
     </row>
-    <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="112"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
@@ -26009,7 +26018,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="112"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
@@ -26346,7 +26355,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="112"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
@@ -26685,7 +26694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="112"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
@@ -27024,7 +27033,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:123" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="112"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
@@ -27363,7 +27372,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:123" ht="15.75" thickTop="1">
+    <row r="38" spans="1:123" ht="15" thickTop="1">
       <c r="A38" s="15"/>
     </row>
     <row r="39" spans="1:123">
@@ -27624,10 +27633,10 @@
     <row r="124" spans="1:1">
       <c r="A124" s="15"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1">
+    <row r="125" spans="1:1" ht="15" thickBot="1">
       <c r="A125" s="16"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" thickTop="1">
+    <row r="126" spans="1:1" ht="15" thickTop="1">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1">
@@ -27705,12 +27714,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="21"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27789,7 +27798,7 @@
       <c r="BB2" s="13"/>
       <c r="BC2" s="13"/>
     </row>
-    <row r="3" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="121" t="s">
         <v>165</v>
       </c>
@@ -27801,7 +27810,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
     </row>
-    <row r="4" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="121"/>
       <c r="B4" s="68" t="s">
         <v>12</v>
@@ -27811,7 +27820,7 @@
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
     </row>
-    <row r="5" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="121"/>
       <c r="B5" s="68" t="s">
         <v>13</v>
@@ -27821,7 +27830,7 @@
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
     </row>
-    <row r="6" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="121"/>
       <c r="B6" s="68" t="s">
         <v>14</v>
@@ -27831,7 +27840,7 @@
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
     </row>
-    <row r="7" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="121"/>
       <c r="B7" s="68" t="s">
         <v>15</v>
@@ -27841,7 +27850,7 @@
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
     </row>
-    <row r="8" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="121"/>
       <c r="B8" s="68" t="s">
         <v>16</v>
@@ -27851,7 +27860,7 @@
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
     </row>
-    <row r="9" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="121"/>
       <c r="B9" s="68" t="s">
         <v>17</v>
@@ -27861,7 +27870,7 @@
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
     </row>
-    <row r="10" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="121"/>
       <c r="B10" s="68" t="s">
         <v>18</v>
@@ -27871,7 +27880,7 @@
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
     </row>
-    <row r="11" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="121"/>
       <c r="B11" s="68" t="s">
         <v>19</v>
@@ -27881,7 +27890,7 @@
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
     </row>
-    <row r="12" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="121"/>
       <c r="B12" s="68" t="s">
         <v>20</v>
@@ -27891,7 +27900,7 @@
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
     </row>
-    <row r="13" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="121"/>
       <c r="B13" s="68" t="s">
         <v>11</v>
@@ -27901,7 +27910,7 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
     </row>
-    <row r="14" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="121"/>
       <c r="B14" s="68" t="s">
         <v>22</v>
@@ -27911,7 +27920,7 @@
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
     </row>
-    <row r="15" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="121"/>
       <c r="B15" s="68" t="s">
         <v>12</v>
@@ -27921,7 +27930,7 @@
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
     </row>
-    <row r="16" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:55" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="121"/>
       <c r="B16" s="68" t="s">
         <v>24</v>
@@ -27931,7 +27940,7 @@
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="121"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
@@ -27941,7 +27950,7 @@
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="121"/>
       <c r="B18" s="68" t="s">
         <v>26</v>
@@ -27951,7 +27960,7 @@
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="121"/>
       <c r="B19" s="68" t="s">
         <v>27</v>
@@ -27961,7 +27970,7 @@
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="121"/>
       <c r="B20" s="68" t="s">
         <v>28</v>
@@ -27971,7 +27980,7 @@
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="121"/>
       <c r="B21" s="68" t="s">
         <v>29</v>
@@ -27981,7 +27990,7 @@
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="121"/>
       <c r="B22" s="68" t="s">
         <v>30</v>
@@ -27991,7 +28000,7 @@
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="121"/>
       <c r="B23" s="68" t="s">
         <v>31</v>
@@ -28001,7 +28010,7 @@
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="121"/>
       <c r="B24" s="68" t="s">
         <v>32</v>
@@ -28011,7 +28020,7 @@
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="121"/>
       <c r="B25" s="68" t="s">
         <v>33</v>
@@ -28021,7 +28030,7 @@
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="121"/>
       <c r="B26" s="68" t="s">
         <v>34</v>
@@ -28031,7 +28040,7 @@
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="121"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
@@ -28041,7 +28050,7 @@
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="121"/>
       <c r="B28" s="68" t="s">
         <v>36</v>
@@ -28051,7 +28060,7 @@
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="121"/>
       <c r="B29" s="68" t="s">
         <v>37</v>
@@ -28061,7 +28070,7 @@
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="121"/>
       <c r="B30" s="68" t="s">
         <v>38</v>
@@ -28071,7 +28080,7 @@
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="121"/>
       <c r="B31" s="68" t="s">
         <v>39</v>
@@ -28081,7 +28090,7 @@
       <c r="E31" s="67"/>
       <c r="F31" s="67"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="121"/>
       <c r="B32" s="68" t="s">
         <v>40</v>
@@ -28091,7 +28100,7 @@
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="121"/>
       <c r="B33" s="68" t="s">
         <v>41</v>
@@ -28101,7 +28110,7 @@
       <c r="E33" s="67"/>
       <c r="F33" s="67"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="121"/>
       <c r="B34" s="68" t="s">
         <v>42</v>
@@ -28111,7 +28120,7 @@
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="121"/>
       <c r="B35" s="68" t="s">
         <v>43</v>
@@ -28121,7 +28130,7 @@
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="121"/>
       <c r="B36" s="68" t="s">
         <v>44</v>
@@ -28131,7 +28140,7 @@
       <c r="E36" s="67"/>
       <c r="F36" s="67"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="121"/>
       <c r="B37" s="68" t="s">
         <v>45</v>
@@ -28141,7 +28150,7 @@
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
     </row>
-    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="121"/>
       <c r="B38" s="68" t="s">
         <v>46</v>
@@ -28151,7 +28160,7 @@
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="121"/>
       <c r="B39" s="68" t="s">
         <v>47</v>
@@ -28161,7 +28170,7 @@
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="121"/>
       <c r="B40" s="68" t="s">
         <v>38</v>
@@ -28171,7 +28180,7 @@
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="121"/>
       <c r="B41" s="68" t="s">
         <v>49</v>
@@ -28181,7 +28190,7 @@
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="121"/>
       <c r="B42" s="68" t="s">
         <v>50</v>
@@ -28191,7 +28200,7 @@
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="121"/>
       <c r="B43" s="68" t="s">
         <v>51</v>
@@ -28201,7 +28210,7 @@
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="121"/>
       <c r="B44" s="68" t="s">
         <v>52</v>
@@ -28211,7 +28220,7 @@
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="121"/>
       <c r="B45" s="68" t="s">
         <v>53</v>
@@ -28221,7 +28230,7 @@
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="121"/>
       <c r="B46" s="68" t="s">
         <v>54</v>
@@ -28231,7 +28240,7 @@
       <c r="E46" s="67"/>
       <c r="F46" s="67"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="121"/>
       <c r="B47" s="68" t="s">
         <v>55</v>
@@ -28241,7 +28250,7 @@
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="121"/>
       <c r="B48" s="68" t="s">
         <v>56</v>
@@ -28251,7 +28260,7 @@
       <c r="E48" s="67"/>
       <c r="F48" s="67"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="121"/>
       <c r="B49" s="68" t="s">
         <v>57</v>
@@ -28261,7 +28270,7 @@
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="121"/>
       <c r="B50" s="68" t="s">
         <v>39</v>
@@ -28271,7 +28280,7 @@
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="121"/>
       <c r="B51" s="68" t="s">
         <v>59</v>
@@ -28281,7 +28290,7 @@
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="121"/>
       <c r="B52" s="68" t="s">
         <v>60</v>
@@ -28291,7 +28300,7 @@
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="121"/>
       <c r="B53" s="68" t="s">
         <v>61</v>
@@ -28301,7 +28310,7 @@
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
     </row>
-    <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="121"/>
       <c r="B54" s="68" t="s">
         <v>62</v>
@@ -28311,7 +28320,7 @@
       <c r="E54" s="67"/>
       <c r="F54" s="67"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="121"/>
       <c r="B55" s="68" t="s">
         <v>63</v>
@@ -28321,7 +28330,7 @@
       <c r="E55" s="67"/>
       <c r="F55" s="67"/>
     </row>
-    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="121"/>
       <c r="B56" s="68" t="s">
         <v>64</v>
@@ -28331,7 +28340,7 @@
       <c r="E56" s="67"/>
       <c r="F56" s="67"/>
     </row>
-    <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="121"/>
       <c r="B57" s="68" t="s">
         <v>65</v>
@@ -28341,7 +28350,7 @@
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
     </row>
-    <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="121"/>
       <c r="B58" s="68" t="s">
         <v>66</v>
@@ -28351,7 +28360,7 @@
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="121"/>
       <c r="B59" s="68" t="s">
         <v>67</v>
@@ -28361,7 +28370,7 @@
       <c r="E59" s="67"/>
       <c r="F59" s="67"/>
     </row>
-    <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="121"/>
       <c r="B60" s="68" t="s">
         <v>68</v>
@@ -28371,7 +28380,7 @@
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
     </row>
-    <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="121"/>
       <c r="B61" s="68" t="s">
         <v>69</v>
@@ -28381,7 +28390,7 @@
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
     </row>
-    <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="121"/>
       <c r="B62" s="68" t="s">
         <v>70</v>
@@ -28391,7 +28400,7 @@
       <c r="E62" s="67"/>
       <c r="F62" s="67"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="121"/>
       <c r="B63" s="68" t="s">
         <v>31</v>
@@ -28401,7 +28410,7 @@
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="121"/>
       <c r="B64" s="68" t="s">
         <v>72</v>
@@ -28411,7 +28420,7 @@
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
     </row>
-    <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="121"/>
       <c r="B65" s="68" t="s">
         <v>73</v>
@@ -28421,7 +28430,7 @@
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
     </row>
-    <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="121"/>
       <c r="B66" s="68" t="s">
         <v>74</v>
@@ -28431,7 +28440,7 @@
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
     </row>
-    <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="121"/>
       <c r="B67" s="68" t="s">
         <v>75</v>
@@ -28441,7 +28450,7 @@
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
     </row>
-    <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="121"/>
       <c r="B68" s="69" t="s">
         <v>76</v>
@@ -28451,7 +28460,7 @@
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
     </row>
-    <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="121"/>
       <c r="B69" s="69" t="s">
         <v>77</v>
@@ -28461,7 +28470,7 @@
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="121"/>
       <c r="B70" s="69" t="s">
         <v>78</v>
@@ -28471,7 +28480,7 @@
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
     </row>
-    <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="121"/>
       <c r="B71" s="69" t="s">
         <v>79</v>
@@ -28481,7 +28490,7 @@
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
     </row>
-    <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="121"/>
       <c r="B72" s="69" t="s">
         <v>80</v>
@@ -28491,7 +28500,7 @@
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
     </row>
-    <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="121"/>
       <c r="B73" s="69" t="s">
         <v>81</v>
@@ -28501,7 +28510,7 @@
       <c r="E73" s="67"/>
       <c r="F73" s="67"/>
     </row>
-    <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="121"/>
       <c r="B74" s="69" t="s">
         <v>82</v>
@@ -28511,7 +28520,7 @@
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
     </row>
-    <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="121"/>
       <c r="B75" s="69" t="s">
         <v>83</v>
@@ -28521,7 +28530,7 @@
       <c r="E75" s="67"/>
       <c r="F75" s="67"/>
     </row>
-    <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="121"/>
       <c r="B76" s="69" t="s">
         <v>84</v>
@@ -28531,7 +28540,7 @@
       <c r="E76" s="67"/>
       <c r="F76" s="67"/>
     </row>
-    <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="121"/>
       <c r="B77" s="69" t="s">
         <v>85</v>
@@ -28541,7 +28550,7 @@
       <c r="E77" s="67"/>
       <c r="F77" s="67"/>
     </row>
-    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="121"/>
       <c r="B78" s="69" t="s">
         <v>86</v>
@@ -28551,7 +28560,7 @@
       <c r="E78" s="67"/>
       <c r="F78" s="67"/>
     </row>
-    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="121"/>
       <c r="B79" s="69" t="s">
         <v>87</v>
@@ -28561,7 +28570,7 @@
       <c r="E79" s="67"/>
       <c r="F79" s="67"/>
     </row>
-    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="121"/>
       <c r="B80" s="69" t="s">
         <v>202</v>
@@ -28571,7 +28580,7 @@
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
     </row>
-    <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="121"/>
       <c r="B81" s="69" t="s">
         <v>89</v>
@@ -28581,7 +28590,7 @@
       <c r="E81" s="67"/>
       <c r="F81" s="67"/>
     </row>
-    <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="121"/>
       <c r="B82" s="69" t="s">
         <v>90</v>
@@ -28591,7 +28600,7 @@
       <c r="E82" s="67"/>
       <c r="F82" s="67"/>
     </row>
-    <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="121"/>
       <c r="B83" s="69" t="s">
         <v>91</v>
@@ -28601,7 +28610,7 @@
       <c r="E83" s="67"/>
       <c r="F83" s="67"/>
     </row>
-    <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="121"/>
       <c r="B84" s="69" t="s">
         <v>92</v>
@@ -28611,7 +28620,7 @@
       <c r="E84" s="67"/>
       <c r="F84" s="67"/>
     </row>
-    <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="121"/>
       <c r="B85" s="69" t="s">
         <v>93</v>
@@ -28621,7 +28630,7 @@
       <c r="E85" s="67"/>
       <c r="F85" s="67"/>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="121"/>
       <c r="B86" s="69" t="s">
         <v>94</v>
@@ -28631,7 +28640,7 @@
       <c r="E86" s="67"/>
       <c r="F86" s="67"/>
     </row>
-    <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="121"/>
       <c r="B87" s="69" t="s">
         <v>95</v>
@@ -28641,7 +28650,7 @@
       <c r="E87" s="67"/>
       <c r="F87" s="67"/>
     </row>
-    <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="121"/>
       <c r="B88" s="69" t="s">
         <v>96</v>
@@ -28651,7 +28660,7 @@
       <c r="E88" s="67"/>
       <c r="F88" s="67"/>
     </row>
-    <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="121"/>
       <c r="B89" s="69" t="s">
         <v>97</v>
@@ -28661,7 +28670,7 @@
       <c r="E89" s="67"/>
       <c r="F89" s="67"/>
     </row>
-    <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="121"/>
       <c r="B90" s="69" t="s">
         <v>98</v>
@@ -28671,7 +28680,7 @@
       <c r="E90" s="67"/>
       <c r="F90" s="67"/>
     </row>
-    <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A91" s="121"/>
       <c r="B91" s="69" t="s">
         <v>99</v>
@@ -28681,7 +28690,7 @@
       <c r="E91" s="67"/>
       <c r="F91" s="67"/>
     </row>
-    <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="121"/>
       <c r="B92" s="69" t="s">
         <v>100</v>
@@ -28691,7 +28700,7 @@
       <c r="E92" s="67"/>
       <c r="F92" s="67"/>
     </row>
-    <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A93" s="121"/>
       <c r="B93" s="69" t="s">
         <v>101</v>
@@ -28701,7 +28710,7 @@
       <c r="E93" s="67"/>
       <c r="F93" s="67"/>
     </row>
-    <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A94" s="121"/>
       <c r="B94" s="69" t="s">
         <v>102</v>
@@ -28711,7 +28720,7 @@
       <c r="E94" s="67"/>
       <c r="F94" s="67"/>
     </row>
-    <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A95" s="121"/>
       <c r="B95" s="69" t="s">
         <v>103</v>
@@ -28721,7 +28730,7 @@
       <c r="E95" s="67"/>
       <c r="F95" s="67"/>
     </row>
-    <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A96" s="121"/>
       <c r="B96" s="69" t="s">
         <v>104</v>
@@ -28731,7 +28740,7 @@
       <c r="E96" s="67"/>
       <c r="F96" s="67"/>
     </row>
-    <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" s="121"/>
       <c r="B97" s="69" t="s">
         <v>105</v>
@@ -28741,7 +28750,7 @@
       <c r="E97" s="67"/>
       <c r="F97" s="67"/>
     </row>
-    <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" s="121"/>
       <c r="B98" s="69" t="s">
         <v>106</v>
@@ -28751,7 +28760,7 @@
       <c r="E98" s="67"/>
       <c r="F98" s="67"/>
     </row>
-    <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" s="121"/>
       <c r="B99" s="69" t="s">
         <v>107</v>
@@ -28761,7 +28770,7 @@
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
     </row>
-    <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="121"/>
       <c r="B100" s="69" t="s">
         <v>108</v>
@@ -28771,7 +28780,7 @@
       <c r="E100" s="67"/>
       <c r="F100" s="67"/>
     </row>
-    <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" s="121"/>
       <c r="B101" s="69" t="s">
         <v>109</v>
@@ -28781,7 +28790,7 @@
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
     </row>
-    <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" s="121"/>
       <c r="B102" s="69" t="s">
         <v>110</v>
@@ -28791,7 +28800,7 @@
       <c r="E102" s="67"/>
       <c r="F102" s="67"/>
     </row>
-    <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A103" s="121"/>
       <c r="B103" s="69" t="s">
         <v>111</v>
@@ -28801,7 +28810,7 @@
       <c r="E103" s="67"/>
       <c r="F103" s="67"/>
     </row>
-    <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A104" s="121"/>
       <c r="B104" s="69" t="s">
         <v>112</v>
@@ -28811,7 +28820,7 @@
       <c r="E104" s="67"/>
       <c r="F104" s="67"/>
     </row>
-    <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A105" s="121"/>
       <c r="B105" s="69" t="s">
         <v>113</v>
@@ -28821,7 +28830,7 @@
       <c r="E105" s="67"/>
       <c r="F105" s="67"/>
     </row>
-    <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A106" s="121"/>
       <c r="B106" s="69" t="s">
         <v>114</v>
@@ -28831,7 +28840,7 @@
       <c r="E106" s="67"/>
       <c r="F106" s="67"/>
     </row>
-    <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A107" s="121"/>
       <c r="B107" s="69" t="s">
         <v>115</v>
@@ -28841,7 +28850,7 @@
       <c r="E107" s="67"/>
       <c r="F107" s="67"/>
     </row>
-    <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A108" s="121"/>
       <c r="B108" s="69" t="s">
         <v>116</v>
@@ -28851,7 +28860,7 @@
       <c r="E108" s="67"/>
       <c r="F108" s="67"/>
     </row>
-    <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A109" s="121"/>
       <c r="B109" s="69" t="s">
         <v>117</v>
@@ -28861,7 +28870,7 @@
       <c r="E109" s="67"/>
       <c r="F109" s="67"/>
     </row>
-    <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A110" s="121"/>
       <c r="B110" s="69" t="s">
         <v>118</v>
@@ -28871,7 +28880,7 @@
       <c r="E110" s="67"/>
       <c r="F110" s="67"/>
     </row>
-    <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A111" s="121"/>
       <c r="B111" s="69" t="s">
         <v>119</v>
@@ -28881,7 +28890,7 @@
       <c r="E111" s="67"/>
       <c r="F111" s="67"/>
     </row>
-    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A112" s="121"/>
       <c r="B112" s="69" t="s">
         <v>120</v>
@@ -28891,7 +28900,7 @@
       <c r="E112" s="67"/>
       <c r="F112" s="67"/>
     </row>
-    <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A113" s="121"/>
       <c r="B113" s="69" t="s">
         <v>121</v>
@@ -28901,7 +28910,7 @@
       <c r="E113" s="67"/>
       <c r="F113" s="67"/>
     </row>
-    <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A114" s="121"/>
       <c r="B114" s="69" t="s">
         <v>122</v>
@@ -28911,7 +28920,7 @@
       <c r="E114" s="67"/>
       <c r="F114" s="67"/>
     </row>
-    <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A115" s="121"/>
       <c r="B115" s="69" t="s">
         <v>205</v>
@@ -28921,7 +28930,7 @@
       <c r="E115" s="67"/>
       <c r="F115" s="67"/>
     </row>
-    <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A116" s="121"/>
       <c r="B116" s="69" t="s">
         <v>124</v>
@@ -28931,7 +28940,7 @@
       <c r="E116" s="67"/>
       <c r="F116" s="67"/>
     </row>
-    <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A117" s="121"/>
       <c r="B117" s="69" t="s">
         <v>125</v>
@@ -28941,7 +28950,7 @@
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
     </row>
-    <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A118" s="121"/>
       <c r="B118" s="69" t="s">
         <v>126</v>
@@ -28951,7 +28960,7 @@
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
     </row>
-    <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A119" s="121"/>
       <c r="B119" s="69" t="s">
         <v>127</v>
@@ -28961,7 +28970,7 @@
       <c r="E119" s="67"/>
       <c r="F119" s="67"/>
     </row>
-    <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A120" s="121"/>
       <c r="B120" s="69" t="s">
         <v>128</v>
@@ -28971,7 +28980,7 @@
       <c r="E120" s="67"/>
       <c r="F120" s="67"/>
     </row>
-    <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A121" s="121"/>
       <c r="B121" s="69" t="s">
         <v>129</v>
@@ -28981,7 +28990,7 @@
       <c r="E121" s="67"/>
       <c r="F121" s="67"/>
     </row>
-    <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A122" s="121"/>
       <c r="B122" s="69" t="s">
         <v>206</v>
@@ -28991,7 +29000,7 @@
       <c r="E122" s="67"/>
       <c r="F122" s="67"/>
     </row>
-    <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A123" s="121"/>
       <c r="B123" s="69" t="s">
         <v>131</v>
@@ -29009,7 +29018,7 @@
       <c r="E124" s="67"/>
       <c r="F124" s="67"/>
     </row>
-    <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A125" s="122" t="s">
         <v>177</v>
       </c>
@@ -29021,7 +29030,7 @@
       <c r="E125" s="67"/>
       <c r="F125" s="67"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A126" s="122"/>
       <c r="B126" s="68" t="s">
         <v>136</v>
@@ -29031,7 +29040,7 @@
       <c r="E126" s="67"/>
       <c r="F126" s="67"/>
     </row>
-    <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A127" s="122"/>
       <c r="B127" s="68" t="s">
         <v>137</v>
@@ -29041,7 +29050,7 @@
       <c r="E127" s="67"/>
       <c r="F127" s="67"/>
     </row>
-    <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A128" s="122"/>
       <c r="B128" s="68" t="s">
         <v>138</v>
@@ -29051,7 +29060,7 @@
       <c r="E128" s="67"/>
       <c r="F128" s="67"/>
     </row>
-    <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A129" s="122"/>
       <c r="B129" s="68" t="s">
         <v>139</v>
@@ -29061,7 +29070,7 @@
       <c r="E129" s="67"/>
       <c r="F129" s="67"/>
     </row>
-    <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A130" s="122"/>
       <c r="B130" s="68" t="s">
         <v>140</v>
@@ -29071,7 +29080,7 @@
       <c r="E130" s="67"/>
       <c r="F130" s="67"/>
     </row>
-    <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" s="122"/>
       <c r="B131" s="68" t="s">
         <v>141</v>
@@ -29081,7 +29090,7 @@
       <c r="E131" s="67"/>
       <c r="F131" s="67"/>
     </row>
-    <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" s="122"/>
       <c r="B132" s="68" t="s">
         <v>142</v>
@@ -29091,7 +29100,7 @@
       <c r="E132" s="67"/>
       <c r="F132" s="67"/>
     </row>
-    <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" s="122"/>
       <c r="B133" s="68" t="s">
         <v>143</v>
@@ -29101,7 +29110,7 @@
       <c r="E133" s="67"/>
       <c r="F133" s="67"/>
     </row>
-    <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" s="122"/>
       <c r="B134" s="68" t="s">
         <v>145</v>
@@ -29111,7 +29120,7 @@
       <c r="E134" s="67"/>
       <c r="F134" s="67"/>
     </row>
-    <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" s="122"/>
       <c r="B135" s="68" t="s">
         <v>146</v>
@@ -29121,7 +29130,7 @@
       <c r="E135" s="67"/>
       <c r="F135" s="67"/>
     </row>
-    <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" s="122"/>
       <c r="B136" s="68" t="s">
         <v>147</v>
@@ -29131,7 +29140,7 @@
       <c r="E136" s="67"/>
       <c r="F136" s="67"/>
     </row>
-    <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" s="122"/>
       <c r="B137" s="68" t="s">
         <v>148</v>
@@ -29141,7 +29150,7 @@
       <c r="E137" s="67"/>
       <c r="F137" s="67"/>
     </row>
-    <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" s="122"/>
       <c r="B138" s="68" t="s">
         <v>149</v>
@@ -29151,7 +29160,7 @@
       <c r="E138" s="67"/>
       <c r="F138" s="67"/>
     </row>
-    <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A139" s="122"/>
       <c r="B139" s="68" t="s">
         <v>150</v>
@@ -29161,7 +29170,7 @@
       <c r="E139" s="67"/>
       <c r="F139" s="67"/>
     </row>
-    <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A140" s="122"/>
       <c r="B140" s="68" t="s">
         <v>151</v>
@@ -29171,7 +29180,7 @@
       <c r="E140" s="67"/>
       <c r="F140" s="67"/>
     </row>
-    <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A141" s="122"/>
       <c r="B141" s="68" t="s">
         <v>152</v>
@@ -29181,7 +29190,7 @@
       <c r="E141" s="67"/>
       <c r="F141" s="67"/>
     </row>
-    <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A142" s="122"/>
       <c r="B142" s="68" t="s">
         <v>153</v>
@@ -29191,7 +29200,7 @@
       <c r="E142" s="67"/>
       <c r="F142" s="67"/>
     </row>
-    <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A143" s="122"/>
       <c r="B143" s="68" t="s">
         <v>154</v>
@@ -29201,7 +29210,7 @@
       <c r="E143" s="67"/>
       <c r="F143" s="67"/>
     </row>
-    <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A144" s="122"/>
       <c r="B144" s="68" t="s">
         <v>155</v>
@@ -29211,7 +29220,7 @@
       <c r="E144" s="67"/>
       <c r="F144" s="67"/>
     </row>
-    <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A145" s="122"/>
       <c r="B145" s="68" t="s">
         <v>156</v>
@@ -29221,7 +29230,7 @@
       <c r="E145" s="67"/>
       <c r="F145" s="67"/>
     </row>
-    <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A146" s="122"/>
       <c r="B146" s="68" t="s">
         <v>157</v>
@@ -29231,7 +29240,7 @@
       <c r="E146" s="67"/>
       <c r="F146" s="67"/>
     </row>
-    <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A147" s="122"/>
       <c r="B147" s="68" t="s">
         <v>158</v>
@@ -29241,7 +29250,7 @@
       <c r="E147" s="67"/>
       <c r="F147" s="67"/>
     </row>
-    <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A148" s="122"/>
       <c r="B148" s="68" t="s">
         <v>159</v>
@@ -29251,7 +29260,7 @@
       <c r="E148" s="67"/>
       <c r="F148" s="67"/>
     </row>
-    <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A149" s="122"/>
       <c r="B149" s="68" t="s">
         <v>160</v>
@@ -29261,7 +29270,7 @@
       <c r="E149" s="67"/>
       <c r="F149" s="67"/>
     </row>
-    <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" s="122"/>
       <c r="B150" s="68" t="s">
         <v>208</v>
@@ -29271,7 +29280,7 @@
       <c r="E150" s="67"/>
       <c r="F150" s="67"/>
     </row>
-    <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" s="122"/>
       <c r="B151" s="68" t="s">
         <v>209</v>
@@ -29281,7 +29290,7 @@
       <c r="E151" s="67"/>
       <c r="F151" s="67"/>
     </row>
-    <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" s="122"/>
       <c r="B152" s="68" t="s">
         <v>210</v>
@@ -29291,7 +29300,7 @@
       <c r="E152" s="67"/>
       <c r="F152" s="67"/>
     </row>
-    <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" s="122"/>
       <c r="B153" s="68" t="s">
         <v>211</v>
@@ -29301,7 +29310,7 @@
       <c r="E153" s="67"/>
       <c r="F153" s="67"/>
     </row>
-    <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" s="122"/>
       <c r="B154" s="68" t="s">
         <v>212</v>
@@ -29311,7 +29320,7 @@
       <c r="E154" s="67"/>
       <c r="F154" s="67"/>
     </row>
-    <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" s="122"/>
       <c r="B155" s="68" t="s">
         <v>188</v>
@@ -29321,7 +29330,7 @@
       <c r="E155" s="67"/>
       <c r="F155" s="67"/>
     </row>
-    <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" s="122"/>
       <c r="B156" s="69" t="s">
         <v>189</v>
@@ -29331,7 +29340,7 @@
       <c r="E156" s="67"/>
       <c r="F156" s="67"/>
     </row>
-    <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" s="122"/>
       <c r="B157" s="69" t="s">
         <v>190</v>
@@ -29341,7 +29350,7 @@
       <c r="E157" s="67"/>
       <c r="F157" s="67"/>
     </row>
-    <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" s="122"/>
       <c r="B158" s="69" t="s">
         <v>191</v>
@@ -29351,7 +29360,7 @@
       <c r="E158" s="67"/>
       <c r="F158" s="67"/>
     </row>
-    <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A159" s="122"/>
       <c r="B159" s="69" t="s">
         <v>192</v>
@@ -29361,7 +29370,7 @@
       <c r="E159" s="67"/>
       <c r="F159" s="67"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="160" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A123"/>
@@ -29378,19 +29387,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="123" t="s">
         <v>225</v>
       </c>
@@ -29400,7 +29409,7 @@
       <c r="E1" s="123"/>
       <c r="F1" s="123"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="123"/>
       <c r="B2" s="123"/>
       <c r="C2" s="123"/>
@@ -29408,7 +29417,7 @@
       <c r="E2" s="123"/>
       <c r="F2" s="123"/>
     </row>
-    <row r="3" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" ht="22.2" thickTop="1" thickBot="1">
       <c r="A3" s="127"/>
       <c r="B3" s="128"/>
       <c r="C3" s="70" t="s">
@@ -29424,1574 +29433,1578 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="121" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C4" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="121"/>
       <c r="B5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="121"/>
       <c r="B6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="121"/>
       <c r="B7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="121"/>
       <c r="B8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="121"/>
       <c r="B9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="121"/>
       <c r="B10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="121"/>
       <c r="B11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="121"/>
       <c r="B12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="121"/>
       <c r="B13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="121"/>
       <c r="B14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="121"/>
       <c r="B15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="121"/>
       <c r="B16" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="121"/>
       <c r="B17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="121"/>
       <c r="B18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="121"/>
       <c r="B19" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="121"/>
       <c r="B20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="121"/>
       <c r="B21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="121"/>
       <c r="B22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="121"/>
       <c r="B23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="121"/>
       <c r="B24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="121"/>
       <c r="B25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="121"/>
       <c r="B26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="121"/>
       <c r="B27" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="121"/>
       <c r="B28" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="121"/>
       <c r="B29" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="121"/>
       <c r="B30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="121"/>
       <c r="B31" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="121"/>
       <c r="B32" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="121"/>
       <c r="B33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="121"/>
       <c r="B34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="121"/>
       <c r="B35" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="121"/>
       <c r="B36" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="121"/>
       <c r="B37" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="121"/>
       <c r="B38" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="121"/>
       <c r="B39" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="121"/>
       <c r="B40" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="121"/>
       <c r="B41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="121"/>
       <c r="B42" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="121"/>
       <c r="B43" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="121"/>
       <c r="B44" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="121"/>
       <c r="B45" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="121"/>
       <c r="B46" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="121"/>
       <c r="B47" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="121"/>
       <c r="B48" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="121"/>
       <c r="B49" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="121"/>
       <c r="B50" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="121"/>
       <c r="B51" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="121"/>
       <c r="B52" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="121"/>
       <c r="B53" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="121"/>
       <c r="B54" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="121"/>
       <c r="B55" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="121"/>
       <c r="B56" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="121"/>
       <c r="B57" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="121"/>
       <c r="B58" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="121"/>
       <c r="B59" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="121"/>
       <c r="B60" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="121"/>
       <c r="B61" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="121"/>
       <c r="B62" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="121"/>
       <c r="B63" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="121"/>
       <c r="B64" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="121"/>
       <c r="B65" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="121"/>
       <c r="B66" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="121"/>
       <c r="B67" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="121"/>
       <c r="B68" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="121"/>
       <c r="B69" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="121"/>
       <c r="B70" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C70" s="129"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="129"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="121"/>
       <c r="B71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="121"/>
       <c r="B72" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="121"/>
       <c r="B73" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="121"/>
       <c r="B74" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="121"/>
       <c r="B75" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="121"/>
       <c r="B76" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="121"/>
       <c r="B77" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C77" s="129"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="121"/>
       <c r="B78" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C78" s="129"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="129"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="121"/>
       <c r="B79" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="129"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="121"/>
       <c r="B80" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="121"/>
       <c r="B81" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C81" s="129"/>
+      <c r="D81" s="129"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="121"/>
       <c r="B82" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="121"/>
       <c r="B83" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="121"/>
       <c r="B84" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="121"/>
       <c r="B85" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="129"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="121"/>
       <c r="B86" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="129"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="121"/>
       <c r="B87" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
+      <c r="E87" s="129"/>
+      <c r="F87" s="129"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="121"/>
       <c r="B88" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="121"/>
       <c r="B89" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C89" s="129"/>
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="121"/>
       <c r="B90" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
+      <c r="E90" s="129"/>
+      <c r="F90" s="129"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A91" s="121"/>
       <c r="B91" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="121"/>
       <c r="B92" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C92" s="129"/>
+      <c r="D92" s="129"/>
+      <c r="E92" s="129"/>
+      <c r="F92" s="129"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A93" s="121"/>
       <c r="B93" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A94" s="121"/>
       <c r="B94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C94" s="129"/>
+      <c r="D94" s="129"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A95" s="121"/>
       <c r="B95" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A96" s="121"/>
       <c r="B96" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C96" s="129"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="129"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" s="121"/>
       <c r="B97" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C97" s="129"/>
+      <c r="D97" s="129"/>
+      <c r="E97" s="129"/>
+      <c r="F97" s="129"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" s="121"/>
       <c r="B98" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C98" s="129"/>
+      <c r="D98" s="129"/>
+      <c r="E98" s="129"/>
+      <c r="F98" s="129"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" s="121"/>
       <c r="B99" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-    </row>
-    <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C99" s="129"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="129"/>
+      <c r="F99" s="129"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="121"/>
       <c r="B100" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-    </row>
-    <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C100" s="129"/>
+      <c r="D100" s="129"/>
+      <c r="E100" s="129"/>
+      <c r="F100" s="129"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" s="121"/>
       <c r="B101" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-    </row>
-    <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C101" s="129"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="129"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" s="121"/>
       <c r="B102" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C102" s="129"/>
+      <c r="D102" s="129"/>
+      <c r="E102" s="129"/>
+      <c r="F102" s="129"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A103" s="121"/>
       <c r="B103" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-    </row>
-    <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C103" s="129"/>
+      <c r="D103" s="129"/>
+      <c r="E103" s="129"/>
+      <c r="F103" s="129"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A104" s="121"/>
       <c r="B104" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C104" s="129"/>
+      <c r="D104" s="129"/>
+      <c r="E104" s="129"/>
+      <c r="F104" s="129"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A105" s="121"/>
       <c r="B105" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C105" s="129"/>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A106" s="121"/>
       <c r="B106" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-    </row>
-    <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
+      <c r="F106" s="129"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A107" s="121"/>
       <c r="B107" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-    </row>
-    <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
+      <c r="E107" s="129"/>
+      <c r="F107" s="129"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A108" s="121"/>
       <c r="B108" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C108" s="129"/>
+      <c r="D108" s="129"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="129"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A109" s="121"/>
       <c r="B109" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="129"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A110" s="121"/>
       <c r="B110" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-    </row>
-    <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="129"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A111" s="121"/>
       <c r="B111" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C111" s="129"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="129"/>
+      <c r="F111" s="129"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A112" s="121"/>
       <c r="B112" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C112" s="129"/>
+      <c r="D112" s="129"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="129"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A113" s="121"/>
       <c r="B113" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C113" s="129"/>
+      <c r="D113" s="129"/>
+      <c r="E113" s="129"/>
+      <c r="F113" s="129"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A114" s="121"/>
       <c r="B114" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C114" s="129"/>
+      <c r="D114" s="129"/>
+      <c r="E114" s="129"/>
+      <c r="F114" s="129"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A115" s="121"/>
       <c r="B115" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C115" s="129"/>
+      <c r="D115" s="129"/>
+      <c r="E115" s="129"/>
+      <c r="F115" s="129"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A116" s="121"/>
       <c r="B116" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C116" s="129"/>
+      <c r="D116" s="129"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="129"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A117" s="121"/>
       <c r="B117" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C117" s="129"/>
+      <c r="D117" s="129"/>
+      <c r="E117" s="129"/>
+      <c r="F117" s="129"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A118" s="121"/>
       <c r="B118" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-    </row>
-    <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="129"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A119" s="121"/>
       <c r="B119" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C119" s="129"/>
+      <c r="D119" s="129"/>
+      <c r="E119" s="129"/>
+      <c r="F119" s="129"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A120" s="121"/>
       <c r="B120" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C120" s="129"/>
+      <c r="D120" s="129"/>
+      <c r="E120" s="129"/>
+      <c r="F120" s="129"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A121" s="121"/>
       <c r="B121" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C121" s="129"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="129"/>
+      <c r="F121" s="129"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A122" s="121"/>
       <c r="B122" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
+      <c r="E122" s="129"/>
+      <c r="F122" s="129"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A123" s="121"/>
       <c r="B123" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="129"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A124" s="121"/>
       <c r="B124" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
+      <c r="E124" s="129"/>
+      <c r="F124" s="129"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="B125" s="21"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A126" s="125" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A127" s="126"/>
       <c r="B127" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="129"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A128" s="126"/>
       <c r="B128" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-    </row>
-    <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C128" s="129"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="129"/>
+      <c r="F128" s="129"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A129" s="126"/>
       <c r="B129" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C129" s="129"/>
+      <c r="D129" s="129"/>
+      <c r="E129" s="129"/>
+      <c r="F129" s="129"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A130" s="126"/>
       <c r="B130" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C130" s="129"/>
+      <c r="D130" s="129"/>
+      <c r="E130" s="129"/>
+      <c r="F130" s="129"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" s="126"/>
       <c r="B131" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C131" s="129"/>
+      <c r="D131" s="129"/>
+      <c r="E131" s="129"/>
+      <c r="F131" s="129"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" s="126"/>
       <c r="B132" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="129"/>
+      <c r="F132" s="129"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" s="126"/>
       <c r="B133" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C133" s="129"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="129"/>
+      <c r="F133" s="129"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" s="126"/>
       <c r="B134" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C134" s="129"/>
+      <c r="D134" s="129"/>
+      <c r="E134" s="129"/>
+      <c r="F134" s="129"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" s="126"/>
       <c r="B135" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C135" s="129"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="129"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" s="126"/>
       <c r="B136" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C136" s="129"/>
+      <c r="D136" s="129"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="129"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" s="126"/>
       <c r="B137" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="67"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C137" s="129"/>
+      <c r="D137" s="129"/>
+      <c r="E137" s="129"/>
+      <c r="F137" s="129"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" s="126"/>
       <c r="B138" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C138" s="129"/>
+      <c r="D138" s="129"/>
+      <c r="E138" s="129"/>
+      <c r="F138" s="129"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A139" s="126"/>
       <c r="B139" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C139" s="129"/>
+      <c r="D139" s="129"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="129"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A140" s="126"/>
       <c r="B140" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C140" s="129"/>
+      <c r="D140" s="129"/>
+      <c r="E140" s="129"/>
+      <c r="F140" s="129"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A141" s="126"/>
       <c r="B141" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C141" s="129"/>
+      <c r="D141" s="129"/>
+      <c r="E141" s="129"/>
+      <c r="F141" s="129"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A142" s="126"/>
       <c r="B142" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-    </row>
-    <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C142" s="129"/>
+      <c r="D142" s="129"/>
+      <c r="E142" s="129"/>
+      <c r="F142" s="129"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A143" s="126"/>
       <c r="B143" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C143" s="129"/>
+      <c r="D143" s="129"/>
+      <c r="E143" s="129"/>
+      <c r="F143" s="129"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A144" s="126"/>
       <c r="B144" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-    </row>
-    <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C144" s="129"/>
+      <c r="D144" s="129"/>
+      <c r="E144" s="129"/>
+      <c r="F144" s="129"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A145" s="126"/>
       <c r="B145" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C145" s="129"/>
+      <c r="D145" s="129"/>
+      <c r="E145" s="129"/>
+      <c r="F145" s="129"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A146" s="126"/>
       <c r="B146" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C146" s="129"/>
+      <c r="D146" s="129"/>
+      <c r="E146" s="129"/>
+      <c r="F146" s="129"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A147" s="126"/>
       <c r="B147" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-    </row>
-    <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C147" s="129"/>
+      <c r="D147" s="129"/>
+      <c r="E147" s="129"/>
+      <c r="F147" s="129"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A148" s="126"/>
       <c r="B148" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="67"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-    </row>
-    <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C148" s="129"/>
+      <c r="D148" s="129"/>
+      <c r="E148" s="129"/>
+      <c r="F148" s="129"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A149" s="126"/>
       <c r="B149" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="67"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-    </row>
-    <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C149" s="129"/>
+      <c r="D149" s="129"/>
+      <c r="E149" s="129"/>
+      <c r="F149" s="129"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" s="126"/>
       <c r="B150" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="67"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-    </row>
-    <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C150" s="129"/>
+      <c r="D150" s="129"/>
+      <c r="E150" s="129"/>
+      <c r="F150" s="129"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" s="126"/>
       <c r="B151" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="67"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
-    </row>
-    <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C151" s="129"/>
+      <c r="D151" s="129"/>
+      <c r="E151" s="129"/>
+      <c r="F151" s="129"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" s="126"/>
       <c r="B152" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C152" s="129"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="129"/>
+      <c r="F152" s="129"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" s="126"/>
       <c r="B153" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C153" s="129"/>
+      <c r="D153" s="129"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="129"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" s="126"/>
       <c r="B154" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C154" s="129"/>
+      <c r="D154" s="129"/>
+      <c r="E154" s="129"/>
+      <c r="F154" s="129"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" s="126"/>
       <c r="B155" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="67"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
-    </row>
-    <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C155" s="129"/>
+      <c r="D155" s="129"/>
+      <c r="E155" s="129"/>
+      <c r="F155" s="129"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" s="126"/>
       <c r="B156" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="67"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C156" s="129"/>
+      <c r="D156" s="129"/>
+      <c r="E156" s="129"/>
+      <c r="F156" s="129"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" s="126"/>
       <c r="B157" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
-    </row>
-    <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C157" s="129"/>
+      <c r="D157" s="129"/>
+      <c r="E157" s="129"/>
+      <c r="F157" s="129"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" s="126"/>
       <c r="B158" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="67"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
-    </row>
-    <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C158" s="129"/>
+      <c r="D158" s="129"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="129"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A159" s="126"/>
       <c r="B159" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-    </row>
-    <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C159" s="129"/>
+      <c r="D159" s="129"/>
+      <c r="E159" s="129"/>
+      <c r="F159" s="129"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A160" s="126"/>
       <c r="B160" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="67"/>
-      <c r="D160" s="67"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
-    </row>
-    <row r="161" ht="15.75" thickTop="1"/>
+      <c r="C160" s="129"/>
+      <c r="D160" s="129"/>
+      <c r="E160" s="129"/>
+      <c r="F160" s="129"/>
+    </row>
+    <row r="161" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A124"/>
